--- a/tutorial/smallYeast.xlsx
+++ b/tutorial/smallYeast.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="440" windowWidth="28560" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>alpha-D-glucose[c] + ATP[c] =&gt; ADP[c] + alpha-D-glucose 6-phosphate[c]</t>
   </si>
   <si>
-    <t>(YFR053C or YGL253W or YCL040W)</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>alpha-D-glucose 6-phosphate[c] &lt;=&gt; beta-D-fructofuranose 6-phosphate[c]</t>
   </si>
   <si>
-    <t>YBR196C</t>
-  </si>
-  <si>
     <t>PFK</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>ATP[c] + beta-D-fructofuranose 6-phosphate[c] =&gt; ADP[c] + beta-D-fructofuranose 1,6-bisphosphate[c]</t>
   </si>
   <si>
-    <t>(YGR240C or YMR205C)</t>
-  </si>
-  <si>
     <t>FBP</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>beta-D-fructofuranose 1,6-bisphosphate[c] =&gt; beta-D-fructofuranose 6-phosphate[c] + phosphate[c]</t>
   </si>
   <si>
-    <t>YLR377C</t>
-  </si>
-  <si>
     <t>FBA</t>
   </si>
   <si>
@@ -216,9 +204,6 @@
     <t>beta-D-fructofuranose 1,6-bisphosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c] + glycerone phosphate[c]</t>
   </si>
   <si>
-    <t>YKL060C</t>
-  </si>
-  <si>
     <t>TPI</t>
   </si>
   <si>
@@ -228,9 +213,6 @@
     <t>glycerone phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c]</t>
   </si>
   <si>
-    <t>YDR050C</t>
-  </si>
-  <si>
     <t>GLD</t>
   </si>
   <si>
@@ -240,9 +222,6 @@
     <t>D-glyceraldehyde 3-phosphate[c] + NAD(+)[c] + phosphate[c] &lt;=&gt; 3-phospho-D-glyceroyl phosphate[c] + NADH[c]</t>
   </si>
   <si>
-    <t>(YJL052W or YJR009C or YGR192C)</t>
-  </si>
-  <si>
     <t>PGK</t>
   </si>
   <si>
@@ -252,9 +231,6 @@
     <t>3-phospho-D-glyceroyl phosphate[c] + ADP[c] &lt;=&gt; 3-phospho-D-glycerate[c] + ATP[c]</t>
   </si>
   <si>
-    <t>YCR012W</t>
-  </si>
-  <si>
     <t>GPM</t>
   </si>
   <si>
@@ -264,9 +240,6 @@
     <t>3-phospho-D-glycerate[c] &lt;=&gt; 2-phospho-D-glycerate[c]</t>
   </si>
   <si>
-    <t>(YKL152C or YDL021W or YOL056W)</t>
-  </si>
-  <si>
     <t>ENO</t>
   </si>
   <si>
@@ -276,9 +249,6 @@
     <t>2-phospho-D-glycerate[c] &lt;=&gt; phosphoenolpyruvate[c]</t>
   </si>
   <si>
-    <t>(YGR254W or YHR174W)</t>
-  </si>
-  <si>
     <t>PYK</t>
   </si>
   <si>
@@ -288,9 +258,6 @@
     <t>ADP[c] + phosphoenolpyruvate[c] =&gt; ATP[c] + pyruvate[c]</t>
   </si>
   <si>
-    <t>YOR347C</t>
-  </si>
-  <si>
     <t>ZWF</t>
   </si>
   <si>
@@ -300,9 +267,6 @@
     <t>alpha-D-glucose 6-phosphate[c] + NADP(+)[c] =&gt; 6-O-phosphono-D-glucono-1,5-lactone[c] + NADPH[c]</t>
   </si>
   <si>
-    <t>YNL241C</t>
-  </si>
-  <si>
     <t>PGL</t>
   </si>
   <si>
@@ -312,9 +276,6 @@
     <t>6-O-phosphono-D-glucono-1,5-lactone[c] =&gt; 6-phospho-D-gluconate[c]</t>
   </si>
   <si>
-    <t>(YNR034W or YCR073W-A or YHR163W or YGR248W)</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
@@ -324,9 +285,6 @@
     <t>6-phospho-D-gluconate[c] + NADP(+)[c] =&gt; CO2[c] + D-ribulose 5-phosphate[c] + NADPH[c]</t>
   </si>
   <si>
-    <t>(YGR256W or YHR183W)</t>
-  </si>
-  <si>
     <t>RPI</t>
   </si>
   <si>
@@ -336,9 +294,6 @@
     <t>D-ribulose 5-phosphate[c] &lt;=&gt; D-ribose 5-phosphate[c]</t>
   </si>
   <si>
-    <t>YOR095C</t>
-  </si>
-  <si>
     <t>RPE</t>
   </si>
   <si>
@@ -348,9 +303,6 @@
     <t>D-ribulose 5-phosphate[c] &lt;=&gt; D-xylulose 5-phosphate[c]</t>
   </si>
   <si>
-    <t>YJL121C</t>
-  </si>
-  <si>
     <t>TKI1TKI2a</t>
   </si>
   <si>
@@ -360,9 +312,6 @@
     <t>D-ribose 5-phosphate[c] + D-xylulose 5-phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c]</t>
   </si>
   <si>
-    <t>(YBR117C or YPR074C)</t>
-  </si>
-  <si>
     <t>TAL1</t>
   </si>
   <si>
@@ -372,9 +321,6 @@
     <t>D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c] &lt;=&gt; beta-D-fructofuranose 6-phosphate[c] + D-erythrose 4-phosphate[c]</t>
   </si>
   <si>
-    <t>YLR354C</t>
-  </si>
-  <si>
     <t>TKI1TKI2b</t>
   </si>
   <si>
@@ -390,9 +336,6 @@
     <t>glycerone phosphate[c] + NADH[c] =&gt; glycerol monophosphate[c] + NAD(+)[c]</t>
   </si>
   <si>
-    <t>(YDL022W or YOL059W)</t>
-  </si>
-  <si>
     <t>GPP</t>
   </si>
   <si>
@@ -402,9 +345,6 @@
     <t>glycerol monophosphate[c] =&gt; glycerol[c] + phosphate[c]</t>
   </si>
   <si>
-    <t>(YIL053W or YER062C)</t>
-  </si>
-  <si>
     <t>PDC</t>
   </si>
   <si>
@@ -414,9 +354,6 @@
     <t>pyruvate[c] =&gt; acetaldehyde[c] + CO2[c]</t>
   </si>
   <si>
-    <t>(YGR087C or YLR134W or YLR044C)</t>
-  </si>
-  <si>
     <t>ADH1</t>
   </si>
   <si>
@@ -426,9 +363,6 @@
     <t>acetaldehyde[c] + NADH[c] &lt;=&gt; ethanol[c] + NAD(+)[c]</t>
   </si>
   <si>
-    <t>(YGL256W or YMR303C or YOL086C)</t>
-  </si>
-  <si>
     <t>ALD6</t>
   </si>
   <si>
@@ -438,9 +372,6 @@
     <t>acetaldehyde[c] + NADP(+)[c] =&gt; acetate[c] + NADPH[c]</t>
   </si>
   <si>
-    <t>YPL061W</t>
-  </si>
-  <si>
     <t>ACS</t>
   </si>
   <si>
@@ -450,9 +381,6 @@
     <t>acetate[c] + 2 ATP[c] + coenzyme A[c] =&gt; acetyl-CoA[c] + 2 ADP[c] + 2 phosphate[c]</t>
   </si>
   <si>
-    <t>(YAL054C or YLR153C)</t>
-  </si>
-  <si>
     <t>PDH</t>
   </si>
   <si>
@@ -462,9 +390,6 @@
     <t>coenzyme A[m] + NAD(+)[m] + pyruvate[c] =&gt; acetyl-CoA[m] + CO2[m] + NADH[m]</t>
   </si>
   <si>
-    <t>YER178W</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -477,9 +402,6 @@
     <t>ATP[c] + CO2[c] + pyruvate[c] =&gt; ADP[c] + oxaloacetate[m] + phosphate[c]</t>
   </si>
   <si>
-    <t>(YGL062W or YBR218C)</t>
-  </si>
-  <si>
     <t>CIT</t>
   </si>
   <si>
@@ -489,9 +411,6 @@
     <t>acetyl-CoA[m] + oxaloacetate[m] =&gt; citrate[m] + coenzyme A[m]</t>
   </si>
   <si>
-    <t>(YNR001C or YPR001W)</t>
-  </si>
-  <si>
     <t>ACO</t>
   </si>
   <si>
@@ -501,9 +420,6 @@
     <t>citrate[m] &lt;=&gt; isocitrate[m]</t>
   </si>
   <si>
-    <t>YLR304C</t>
-  </si>
-  <si>
     <t>IDP1</t>
   </si>
   <si>
@@ -513,9 +429,6 @@
     <t>isocitrate[m] + NADP(+)[m] =&gt; 2-oxoglutarate[m] + CO2[m] + NADPH[m]</t>
   </si>
   <si>
-    <t>YDL066W</t>
-  </si>
-  <si>
     <t>KGD1KGD2</t>
   </si>
   <si>
@@ -525,9 +438,6 @@
     <t>2-oxoglutarate[m] + coenzyme A[m] + NAD(+)[m] =&gt; CO2[m] + NADH[m] + succinyl-CoA[m]</t>
   </si>
   <si>
-    <t>YIL125W</t>
-  </si>
-  <si>
     <t>LSC1LSC2</t>
   </si>
   <si>
@@ -537,9 +447,6 @@
     <t>ADP[c] + phosphate[c] + succinyl-CoA[m] &lt;=&gt; ATP[c] + coenzyme A[m] + succinate[m]</t>
   </si>
   <si>
-    <t>(YGR244C or YOR142W)</t>
-  </si>
-  <si>
     <t>SDH</t>
   </si>
   <si>
@@ -549,9 +456,6 @@
     <t>FAD[m] + succinate[m] =&gt; FADH2[m] + fumarate[m]</t>
   </si>
   <si>
-    <t>YKL141W</t>
-  </si>
-  <si>
     <t>FRDS2</t>
   </si>
   <si>
@@ -561,9 +465,6 @@
     <t>FADH2[m] + fumarate[m] =&gt; FAD[m] + succinate[m]</t>
   </si>
   <si>
-    <t>YJR051W</t>
-  </si>
-  <si>
     <t>FUM1</t>
   </si>
   <si>
@@ -573,9 +474,6 @@
     <t>fumarate[m] &lt;=&gt; (S)-malate[m]</t>
   </si>
   <si>
-    <t>YPL262W</t>
-  </si>
-  <si>
     <t>MDH1</t>
   </si>
   <si>
@@ -585,9 +483,6 @@
     <t>(S)-malate[m] + NAD(+)[m] &lt;=&gt; NADH[m] + oxaloacetate[m]</t>
   </si>
   <si>
-    <t>YKL085W</t>
-  </si>
-  <si>
     <t>MAE1</t>
   </si>
   <si>
@@ -597,9 +492,6 @@
     <t>(S)-malate[m] + NADP(+)[m] =&gt; CO2[c] + NADPH[m] + pyruvate[c]</t>
   </si>
   <si>
-    <t>YKL029C</t>
-  </si>
-  <si>
     <t>PCK</t>
   </si>
   <si>
@@ -609,9 +501,6 @@
     <t>ATP[c] + oxaloacetate[m] =&gt; ADP[c] + CO2[c] + phosphoenolpyruvate[c]</t>
   </si>
   <si>
-    <t>YKR097W</t>
-  </si>
-  <si>
     <t>CAT2</t>
   </si>
   <si>
@@ -621,9 +510,6 @@
     <t>acetyl-CoA[c] + coenzyme A[m] =&gt; acetyl-CoA[m] + coenzyme A[c]</t>
   </si>
   <si>
-    <t>YML042W</t>
-  </si>
-  <si>
     <t>CO2TRANS</t>
   </si>
   <si>
@@ -1566,123 +1452,6 @@
     <t>SHORT NAME</t>
   </si>
   <si>
-    <t>YAL054C</t>
-  </si>
-  <si>
-    <t>YBR117C</t>
-  </si>
-  <si>
-    <t>YBR218C</t>
-  </si>
-  <si>
-    <t>YCL040W</t>
-  </si>
-  <si>
-    <t>YCR073W-A</t>
-  </si>
-  <si>
-    <t>YDL021W</t>
-  </si>
-  <si>
-    <t>YDL022W</t>
-  </si>
-  <si>
-    <t>YER062C</t>
-  </si>
-  <si>
-    <t>YFR053C</t>
-  </si>
-  <si>
-    <t>YGL062W</t>
-  </si>
-  <si>
-    <t>YGL253W</t>
-  </si>
-  <si>
-    <t>YGL256W</t>
-  </si>
-  <si>
-    <t>YGR087C</t>
-  </si>
-  <si>
-    <t>YGR192C</t>
-  </si>
-  <si>
-    <t>YGR240C</t>
-  </si>
-  <si>
-    <t>YGR244C</t>
-  </si>
-  <si>
-    <t>YGR248W</t>
-  </si>
-  <si>
-    <t>YGR254W</t>
-  </si>
-  <si>
-    <t>YGR256W</t>
-  </si>
-  <si>
-    <t>YHR163W</t>
-  </si>
-  <si>
-    <t>YHR174W</t>
-  </si>
-  <si>
-    <t>YHR183W</t>
-  </si>
-  <si>
-    <t>YIL053W</t>
-  </si>
-  <si>
-    <t>YJL052W</t>
-  </si>
-  <si>
-    <t>YJR009C</t>
-  </si>
-  <si>
-    <t>YKL152C</t>
-  </si>
-  <si>
-    <t>YLR044C</t>
-  </si>
-  <si>
-    <t>YLR134W</t>
-  </si>
-  <si>
-    <t>YLR153C</t>
-  </si>
-  <si>
-    <t>YMR205C</t>
-  </si>
-  <si>
-    <t>YMR303C</t>
-  </si>
-  <si>
-    <t>YNR001C</t>
-  </si>
-  <si>
-    <t>YNR034W</t>
-  </si>
-  <si>
-    <t>YOL056W</t>
-  </si>
-  <si>
-    <t>YOL059W</t>
-  </si>
-  <si>
-    <t>YOL086C</t>
-  </si>
-  <si>
-    <t>YOR142W</t>
-  </si>
-  <si>
-    <t>YPR001W</t>
-  </si>
-  <si>
-    <t>YPR074C</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -1899,187 +1668,418 @@
     <t>TKL1</t>
   </si>
   <si>
-    <t>sgd/S000000050;uniprot/Q01574</t>
-  </si>
-  <si>
-    <t>sgd/S000000321;uniprot/P33315</t>
-  </si>
-  <si>
-    <t>sgd/S000000400;uniprot/P12709</t>
-  </si>
-  <si>
-    <t>sgd/S000000422;uniprot/P32327</t>
-  </si>
-  <si>
-    <t>sgd/S000000545;uniprot/P17709</t>
-  </si>
-  <si>
-    <t>sgd/S000000605;uniprot/P00560</t>
-  </si>
-  <si>
-    <t>sgd/S000000718;uniprot/P37262</t>
-  </si>
-  <si>
-    <t>sgd/S000002179;uniprot/Q12008</t>
-  </si>
-  <si>
-    <t>sgd/S000002180;uniprot/Q00055</t>
-  </si>
-  <si>
-    <t>sgd/S000002224;uniprot/P21954</t>
-  </si>
-  <si>
-    <t>sgd/S000002457;uniprot/P00942</t>
-  </si>
-  <si>
-    <t>sgd/S000000864;uniprot/P40106</t>
-  </si>
-  <si>
-    <t>sgd/S000000980;uniprot/P16387</t>
-  </si>
-  <si>
-    <t>sgd/S000001949;uniprot/P04806</t>
-  </si>
-  <si>
-    <t>sgd/S000003030;uniprot/P11154</t>
-  </si>
-  <si>
-    <t>sgd/S000003222;uniprot/P04807</t>
-  </si>
-  <si>
-    <t>sgd/S000003225;uniprot/P10127</t>
-  </si>
-  <si>
-    <t>sgd/S000003319;uniprot/P26263</t>
-  </si>
-  <si>
-    <t>sgd/S000003424;uniprot/P00359</t>
-  </si>
-  <si>
-    <t>sgd/S000003472;uniprot/P16861</t>
-  </si>
-  <si>
-    <t>sgd/S000003476;uniprot/P53312</t>
-  </si>
-  <si>
-    <t>sgd/S000003480;uniprot/P53315</t>
-  </si>
-  <si>
-    <t>sgd/S000003486;uniprot/P00924</t>
-  </si>
-  <si>
-    <t>sgd/S000003488;uniprot/P53319</t>
-  </si>
-  <si>
-    <t>sgd/S000001206;uniprot/P38858</t>
-  </si>
-  <si>
-    <t>sgd/S000001217;uniprot/P00925</t>
-  </si>
-  <si>
-    <t>sgd/S000001226;uniprot/P38720</t>
-  </si>
-  <si>
-    <t>sgd/S000001315;uniprot/P41277</t>
-  </si>
-  <si>
-    <t>sgd/S000001387;uniprot/P20967</t>
-  </si>
-  <si>
-    <t>sgd/S000003588;uniprot/P00360</t>
-  </si>
-  <si>
-    <t>sgd/S000003657;uniprot/P46969</t>
-  </si>
-  <si>
-    <t>sgd/S000003769;uniprot/P00358</t>
-  </si>
-  <si>
-    <t>sgd/S000003812;uniprot/P21375</t>
-  </si>
-  <si>
-    <t>sgd/S000001512;uniprot/P36013</t>
-  </si>
-  <si>
-    <t>sgd/S000001543;uniprot/P14540</t>
-  </si>
-  <si>
-    <t>sgd/S000001568;uniprot/P17505</t>
-  </si>
-  <si>
-    <t>sgd/S000001624;uniprot/P33421</t>
-  </si>
-  <si>
-    <t>sgd/S000001635;uniprot/P00950</t>
-  </si>
-  <si>
-    <t>sgd/S000001805;uniprot/P10963</t>
-  </si>
-  <si>
-    <t>sgd/S000004034;uniprot/P06169</t>
-  </si>
-  <si>
-    <t>sgd/S000004124;uniprot/P16467</t>
-  </si>
-  <si>
-    <t>sgd/S000004143;uniprot/P52910</t>
-  </si>
-  <si>
-    <t>sgd/S000004295;uniprot/P19414</t>
-  </si>
-  <si>
-    <t>sgd/S000004346;uniprot/P15019</t>
-  </si>
-  <si>
-    <t>sgd/S000004369;uniprot/P09201</t>
-  </si>
-  <si>
-    <t>sgd/S000004506;uniprot/P32796</t>
-  </si>
-  <si>
-    <t>sgd/S000004818;uniprot/P16862</t>
-  </si>
-  <si>
-    <t>sgd/S000004918;uniprot/P00331</t>
-  </si>
-  <si>
-    <t>sgd/S000005185;uniprot/P11412</t>
-  </si>
-  <si>
-    <t>sgd/S000005284;uniprot/P00890</t>
-  </si>
-  <si>
-    <t>sgd/S000005317;uniprot/P50278</t>
-  </si>
-  <si>
-    <t>sgd/S000005417;uniprot/Q12326</t>
-  </si>
-  <si>
-    <t>sgd/S000005420;uniprot/P41911</t>
-  </si>
-  <si>
-    <t>sgd/S000005446;uniprot/P00330</t>
-  </si>
-  <si>
-    <t>sgd/S000005621;uniprot/Q12189</t>
-  </si>
-  <si>
-    <t>sgd/S000005668;uniprot/P53598</t>
-  </si>
-  <si>
-    <t>sgd/S000005874;uniprot/P52489</t>
-  </si>
-  <si>
-    <t>sgd/S000005982;uniprot/P54115</t>
-  </si>
-  <si>
-    <t>sgd/S000006183;uniprot/P08417</t>
-  </si>
-  <si>
-    <t>sgd/S000006205;uniprot/P43635</t>
-  </si>
-  <si>
-    <t>sgd/S000006278;uniprot/P23254</t>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>g6</t>
+  </si>
+  <si>
+    <t>g7</t>
+  </si>
+  <si>
+    <t>g8</t>
+  </si>
+  <si>
+    <t>g9</t>
+  </si>
+  <si>
+    <t>g10</t>
+  </si>
+  <si>
+    <t>g11</t>
+  </si>
+  <si>
+    <t>g12</t>
+  </si>
+  <si>
+    <t>g13</t>
+  </si>
+  <si>
+    <t>g14</t>
+  </si>
+  <si>
+    <t>g15</t>
+  </si>
+  <si>
+    <t>g16</t>
+  </si>
+  <si>
+    <t>g17</t>
+  </si>
+  <si>
+    <t>g18</t>
+  </si>
+  <si>
+    <t>g19</t>
+  </si>
+  <si>
+    <t>g20</t>
+  </si>
+  <si>
+    <t>g21</t>
+  </si>
+  <si>
+    <t>g22</t>
+  </si>
+  <si>
+    <t>g23</t>
+  </si>
+  <si>
+    <t>g24</t>
+  </si>
+  <si>
+    <t>g25</t>
+  </si>
+  <si>
+    <t>g26</t>
+  </si>
+  <si>
+    <t>g27</t>
+  </si>
+  <si>
+    <t>g28</t>
+  </si>
+  <si>
+    <t>g29</t>
+  </si>
+  <si>
+    <t>g30</t>
+  </si>
+  <si>
+    <t>g31</t>
+  </si>
+  <si>
+    <t>g32</t>
+  </si>
+  <si>
+    <t>g33</t>
+  </si>
+  <si>
+    <t>g34</t>
+  </si>
+  <si>
+    <t>g35</t>
+  </si>
+  <si>
+    <t>g36</t>
+  </si>
+  <si>
+    <t>g37</t>
+  </si>
+  <si>
+    <t>g38</t>
+  </si>
+  <si>
+    <t>g39</t>
+  </si>
+  <si>
+    <t>g40</t>
+  </si>
+  <si>
+    <t>g41</t>
+  </si>
+  <si>
+    <t>g42</t>
+  </si>
+  <si>
+    <t>g43</t>
+  </si>
+  <si>
+    <t>g44</t>
+  </si>
+  <si>
+    <t>g45</t>
+  </si>
+  <si>
+    <t>g46</t>
+  </si>
+  <si>
+    <t>g47</t>
+  </si>
+  <si>
+    <t>g48</t>
+  </si>
+  <si>
+    <t>g49</t>
+  </si>
+  <si>
+    <t>g50</t>
+  </si>
+  <si>
+    <t>g51</t>
+  </si>
+  <si>
+    <t>g52</t>
+  </si>
+  <si>
+    <t>g53</t>
+  </si>
+  <si>
+    <t>g54</t>
+  </si>
+  <si>
+    <t>g55</t>
+  </si>
+  <si>
+    <t>g56</t>
+  </si>
+  <si>
+    <t>g57</t>
+  </si>
+  <si>
+    <t>g58</t>
+  </si>
+  <si>
+    <t>g59</t>
+  </si>
+  <si>
+    <t>g60</t>
+  </si>
+  <si>
+    <t>g61</t>
+  </si>
+  <si>
+    <t>(g14 or g16 or g5)</t>
+  </si>
+  <si>
+    <t>(g20 or g47)</t>
+  </si>
+  <si>
+    <t>(g30 or g32 or g19)</t>
+  </si>
+  <si>
+    <t>(g38 or g8 or g52)</t>
+  </si>
+  <si>
+    <t>(g23 or g26)</t>
+  </si>
+  <si>
+    <t>(g51 or g7 or g25 or g22)</t>
+  </si>
+  <si>
+    <t>(g24 or g27)</t>
+  </si>
+  <si>
+    <t>(g2 or g61)</t>
+  </si>
+  <si>
+    <t>(g9 or g53)</t>
+  </si>
+  <si>
+    <t>(g28 or g12)</t>
+  </si>
+  <si>
+    <t>(g18 or g41 or g40)</t>
+  </si>
+  <si>
+    <t>(g17 or g48 or g54)</t>
+  </si>
+  <si>
+    <t>(g1 or g42)</t>
+  </si>
+  <si>
+    <t>(g15 or g4)</t>
+  </si>
+  <si>
+    <t>(g50 or g60)</t>
+  </si>
+  <si>
+    <t>(g21 or g56)</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YAL054C;sgd/S000000050;uniprot/Q01574</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YBR117C;sgd/S000000321;uniprot/P33315</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YBR196C;sgd/S000000400;uniprot/P12709</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YBR218C;sgd/S000000422;uniprot/P32327</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YCL040W;sgd/S000000545;uniprot/P17709</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YCR012W;sgd/S000000605;uniprot/P00560</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YCR073W-A;sgd/S000000718;uniprot/P37262</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDL021W;sgd/S000002179;uniprot/Q12008</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDL022W;sgd/S000002180;uniprot/Q00055</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDL066W;sgd/S000002224;uniprot/P21954</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDR050C;sgd/S000002457;uniprot/P00942</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YER062C;sgd/S000000864;uniprot/P40106</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YER178W;sgd/S000000980;uniprot/P16387</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YFR053C;sgd/S000001949;uniprot/P04806</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGL062W;sgd/S000003030;uniprot/P11154</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGL253W;sgd/S000003222;uniprot/P04807</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGL256W;sgd/S000003225;uniprot/P10127</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR087C;sgd/S000003319;uniprot/P26263</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR192C;sgd/S000003424;uniprot/P00359</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR240C;sgd/S000003472;uniprot/P16861</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR244C;sgd/S000003476;uniprot/P53312</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR248W;sgd/S000003480;uniprot/P53315</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR254W;sgd/S000003486;uniprot/P00924</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR256W;sgd/S000003488;uniprot/P53319</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YHR163W;sgd/S000001206;uniprot/P38858</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YHR174W;sgd/S000001217;uniprot/P00925</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YHR183W;sgd/S000001226;uniprot/P38720</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YIL053W;sgd/S000001315;uniprot/P41277</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YIL125W;sgd/S000001387;uniprot/P20967</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJL052W;sgd/S000003588;uniprot/P00360</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJL121C;sgd/S000003657;uniprot/P46969</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJR009C;sgd/S000003769;uniprot/P00358</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJR051W;sgd/S000003812;uniprot/P21375</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL029C;sgd/S000001512;uniprot/P36013</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL060C;sgd/S000001543;uniprot/P14540</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL085W;sgd/S000001568;uniprot/P17505</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL141W;sgd/S000001624;uniprot/P33421</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL152C;sgd/S000001635;uniprot/P00950</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKR097W;sgd/S000001805;uniprot/P10963</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR044C;sgd/S000004034;uniprot/P06169</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR134W;sgd/S000004124;uniprot/P16467</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR153C;sgd/S000004143;uniprot/P52910</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR304C;sgd/S000004295;uniprot/P19414</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR354C;sgd/S000004346;uniprot/P15019</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR377C;sgd/S000004369;uniprot/P09201</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YML042W;sgd/S000004506;uniprot/P32796</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YMR205C;sgd/S000004818;uniprot/P16862</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YMR303C;sgd/S000004918;uniprot/P00331</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YNL241C;sgd/S000005185;uniprot/P11412</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YNR001C;sgd/S000005284;uniprot/P00890</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YNR034W;sgd/S000005317;uniprot/P50278</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOL056W;sgd/S000005417;uniprot/Q12326</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOL059W;sgd/S000005420;uniprot/P41911</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOL086C;sgd/S000005446;uniprot/P00330</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOR095C;sgd/S000005621;uniprot/Q12189</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOR142W;sgd/S000005668;uniprot/P53598</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOR347C;sgd/S000005874;uniprot/P52489</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPL061W;sgd/S000005982;uniprot/P54115</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPL262W;sgd/S000006183;uniprot/P08417</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPR001W;sgd/S000006205;uniprot/P43635</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPR074C;sgd/S000006278;uniprot/P23254</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>566</v>
+        <v>489</v>
       </c>
       <c r="C3" s="12"/>
     </row>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>567</v>
+        <v>490</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -2673,670 +2673,670 @@
         <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>606</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>547</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>607</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>589</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>579</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>65</v>
+        <v>555</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>69</v>
+        <v>608</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>550</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>609</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>610</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>593</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>611</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>97</v>
+        <v>612</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>101</v>
+        <v>599</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>105</v>
+        <v>575</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>109</v>
+        <v>613</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>113</v>
+        <v>588</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>109</v>
+        <v>613</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>119</v>
+        <v>614</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>123</v>
+        <v>615</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>127</v>
+        <v>616</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>131</v>
+        <v>617</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>135</v>
+        <v>602</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>139</v>
+        <v>618</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>143</v>
+        <v>557</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>148</v>
+        <v>619</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>152</v>
+        <v>620</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>156</v>
+        <v>587</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>160</v>
+        <v>554</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>164</v>
+        <v>573</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>168</v>
+        <v>621</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>172</v>
+        <v>581</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>176</v>
+        <v>577</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>180</v>
+        <v>603</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>184</v>
+        <v>580</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>188</v>
+        <v>578</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>192</v>
+        <v>583</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>196</v>
+        <v>590</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3347,78 +3347,78 @@
         <v>0</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>568</v>
+        <v>491</v>
       </c>
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3457,16 +3457,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>9</v>
@@ -3475,472 +3475,472 @@
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>1</v>
@@ -3949,890 +3949,890 @@
         <v>19</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="D26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="D35" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="D40" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="D53" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4863,13 +4863,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>10</v>
@@ -4877,18 +4877,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4896,7 +4896,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -4933,7 +4933,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>9</v>
@@ -4941,856 +4941,856 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
         <v>622</v>
       </c>
       <c r="D2" t="s">
-        <v>569</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="C3" t="s">
         <v>623</v>
       </c>
       <c r="D3" t="s">
-        <v>570</v>
+        <v>493</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
         <v>624</v>
       </c>
       <c r="D4" t="s">
-        <v>571</v>
+        <v>494</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
         <v>625</v>
       </c>
       <c r="D5" t="s">
-        <v>572</v>
+        <v>495</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="C6" t="s">
         <v>626</v>
       </c>
       <c r="D6" t="s">
-        <v>573</v>
+        <v>496</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>550</v>
       </c>
       <c r="C7" t="s">
         <v>627</v>
       </c>
       <c r="D7" t="s">
-        <v>574</v>
+        <v>497</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="C8" t="s">
         <v>628</v>
       </c>
       <c r="D8" t="s">
-        <v>575</v>
+        <v>498</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="C9" t="s">
         <v>629</v>
       </c>
       <c r="D9" t="s">
-        <v>576</v>
+        <v>499</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="C10" t="s">
         <v>630</v>
       </c>
       <c r="D10" t="s">
-        <v>577</v>
+        <v>500</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>160</v>
+        <v>554</v>
       </c>
       <c r="C11" t="s">
         <v>631</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>555</v>
       </c>
       <c r="C12" t="s">
         <v>632</v>
       </c>
       <c r="D12" t="s">
-        <v>578</v>
+        <v>501</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="C13" t="s">
         <v>633</v>
       </c>
       <c r="D13" t="s">
-        <v>579</v>
+        <v>502</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>143</v>
+        <v>557</v>
       </c>
       <c r="C14" t="s">
         <v>634</v>
       </c>
       <c r="D14" t="s">
-        <v>580</v>
+        <v>503</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="C15" t="s">
         <v>635</v>
       </c>
       <c r="D15" t="s">
-        <v>581</v>
+        <v>504</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
       <c r="C16" t="s">
         <v>636</v>
       </c>
       <c r="D16" t="s">
-        <v>582</v>
+        <v>505</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="C17" t="s">
         <v>637</v>
       </c>
       <c r="D17" t="s">
-        <v>583</v>
+        <v>506</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="C18" t="s">
         <v>638</v>
       </c>
       <c r="D18" t="s">
-        <v>584</v>
+        <v>507</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="C19" t="s">
         <v>639</v>
       </c>
       <c r="D19" t="s">
-        <v>585</v>
+        <v>508</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>524</v>
+        <v>563</v>
       </c>
       <c r="C20" t="s">
         <v>640</v>
       </c>
       <c r="D20" t="s">
-        <v>586</v>
+        <v>509</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>525</v>
+        <v>564</v>
       </c>
       <c r="C21" t="s">
         <v>641</v>
       </c>
       <c r="D21" t="s">
-        <v>587</v>
+        <v>510</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="C22" t="s">
         <v>642</v>
       </c>
       <c r="D22" t="s">
-        <v>588</v>
+        <v>511</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>527</v>
+        <v>566</v>
       </c>
       <c r="C23" t="s">
         <v>643</v>
       </c>
       <c r="D23" t="s">
-        <v>589</v>
+        <v>512</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="C24" t="s">
         <v>644</v>
       </c>
       <c r="D24" t="s">
-        <v>590</v>
+        <v>513</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="C25" t="s">
         <v>645</v>
       </c>
       <c r="D25" t="s">
-        <v>591</v>
+        <v>514</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="C26" t="s">
         <v>646</v>
       </c>
       <c r="D26" t="s">
-        <v>592</v>
+        <v>515</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="C27" t="s">
         <v>647</v>
       </c>
       <c r="D27" t="s">
-        <v>593</v>
+        <v>516</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
       <c r="C28" t="s">
         <v>648</v>
       </c>
       <c r="D28" t="s">
-        <v>594</v>
+        <v>517</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="C29" t="s">
         <v>649</v>
       </c>
       <c r="D29" t="s">
-        <v>595</v>
+        <v>518</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>164</v>
+        <v>573</v>
       </c>
       <c r="C30" t="s">
         <v>650</v>
       </c>
       <c r="D30" t="s">
-        <v>596</v>
+        <v>519</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="C31" t="s">
         <v>651</v>
       </c>
       <c r="D31" t="s">
-        <v>597</v>
+        <v>520</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>105</v>
+        <v>575</v>
       </c>
       <c r="C32" t="s">
         <v>652</v>
       </c>
       <c r="D32" t="s">
-        <v>598</v>
+        <v>521</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="C33" t="s">
         <v>653</v>
       </c>
       <c r="D33" t="s">
-        <v>599</v>
+        <v>522</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
-        <v>176</v>
+        <v>577</v>
       </c>
       <c r="C34" t="s">
         <v>654</v>
       </c>
       <c r="D34" t="s">
-        <v>600</v>
+        <v>523</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>188</v>
+        <v>578</v>
       </c>
       <c r="C35" t="s">
         <v>655</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
-        <v>61</v>
+        <v>579</v>
       </c>
       <c r="C36" t="s">
         <v>656</v>
       </c>
       <c r="D36" t="s">
-        <v>601</v>
+        <v>524</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
-        <v>184</v>
+        <v>580</v>
       </c>
       <c r="C37" t="s">
         <v>657</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>172</v>
+        <v>581</v>
       </c>
       <c r="C38" t="s">
         <v>658</v>
       </c>
       <c r="D38" t="s">
-        <v>602</v>
+        <v>525</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="C39" t="s">
         <v>659</v>
       </c>
       <c r="D39" t="s">
-        <v>603</v>
+        <v>526</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>192</v>
+        <v>583</v>
       </c>
       <c r="C40" t="s">
         <v>660</v>
       </c>
       <c r="D40" t="s">
-        <v>604</v>
+        <v>527</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="C41" t="s">
         <v>661</v>
       </c>
       <c r="D41" t="s">
-        <v>605</v>
+        <v>528</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="C42" t="s">
         <v>662</v>
       </c>
       <c r="D42" t="s">
-        <v>606</v>
+        <v>529</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>539</v>
+        <v>586</v>
       </c>
       <c r="C43" t="s">
         <v>663</v>
       </c>
       <c r="D43" t="s">
-        <v>607</v>
+        <v>530</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
-        <v>156</v>
+        <v>587</v>
       </c>
       <c r="C44" t="s">
         <v>664</v>
       </c>
       <c r="D44" t="s">
-        <v>608</v>
+        <v>531</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>113</v>
+        <v>588</v>
       </c>
       <c r="C45" t="s">
         <v>665</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>57</v>
+        <v>589</v>
       </c>
       <c r="C46" t="s">
         <v>666</v>
       </c>
       <c r="D46" t="s">
-        <v>609</v>
+        <v>532</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>196</v>
+        <v>590</v>
       </c>
       <c r="C47" t="s">
         <v>667</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
-        <v>540</v>
+        <v>591</v>
       </c>
       <c r="C48" t="s">
         <v>668</v>
       </c>
       <c r="D48" t="s">
-        <v>610</v>
+        <v>533</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>541</v>
+        <v>592</v>
       </c>
       <c r="C49" t="s">
         <v>669</v>
       </c>
       <c r="D49" t="s">
-        <v>611</v>
+        <v>534</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>89</v>
+        <v>593</v>
       </c>
       <c r="C50" t="s">
         <v>670</v>
       </c>
       <c r="D50" t="s">
-        <v>612</v>
+        <v>535</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>542</v>
+        <v>594</v>
       </c>
       <c r="C51" t="s">
         <v>671</v>
       </c>
       <c r="D51" t="s">
-        <v>613</v>
+        <v>536</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
-        <v>543</v>
+        <v>595</v>
       </c>
       <c r="C52" t="s">
         <v>672</v>
       </c>
       <c r="D52" t="s">
-        <v>614</v>
+        <v>537</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>544</v>
+        <v>596</v>
       </c>
       <c r="C53" t="s">
         <v>673</v>
       </c>
       <c r="D53" t="s">
-        <v>615</v>
+        <v>538</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>545</v>
+        <v>597</v>
       </c>
       <c r="C54" t="s">
         <v>674</v>
       </c>
       <c r="D54" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
       <c r="C55" t="s">
         <v>675</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
-        <v>101</v>
+        <v>599</v>
       </c>
       <c r="C56" t="s">
         <v>676</v>
       </c>
       <c r="D56" t="s">
-        <v>617</v>
+        <v>540</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="C57" t="s">
         <v>677</v>
       </c>
       <c r="D57" t="s">
-        <v>618</v>
+        <v>541</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>85</v>
+        <v>601</v>
       </c>
       <c r="C58" t="s">
         <v>678</v>
       </c>
       <c r="D58" t="s">
-        <v>619</v>
+        <v>542</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
-        <v>135</v>
+        <v>602</v>
       </c>
       <c r="C59" t="s">
         <v>679</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
-        <v>180</v>
+        <v>603</v>
       </c>
       <c r="C60" t="s">
         <v>680</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="C61" t="s">
         <v>681</v>
       </c>
       <c r="D61" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
-        <v>549</v>
+        <v>605</v>
       </c>
       <c r="C62" t="s">
         <v>682</v>
       </c>
       <c r="D62" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5827,39 +5827,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>550</v>
+        <v>473</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>551</v>
+        <v>474</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>556</v>
+        <v>479</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>557</v>
+        <v>480</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>558</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
-        <v>559</v>
+        <v>482</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>560</v>
+        <v>483</v>
       </c>
       <c r="D2" s="9">
         <v>-1000</v>
@@ -5868,19 +5868,19 @@
         <v>1000</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>561</v>
+        <v>484</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>562</v>
+        <v>485</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>563</v>
+        <v>486</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>564</v>
+        <v>487</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>565</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/tutorial/smallYeast.xlsx
+++ b/tutorial/smallYeast.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simmarc/Box Sync/3_functions/0_matlab/RAVEN/tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\RAVEN\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08BA64E1-1B35-4C5A-9706-87D03289F031}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460"/>
+    <workbookView xWindow="1860" yWindow="435" windowWidth="28800" windowHeight="16455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="GENES" sheetId="4" r:id="rId4"/>
     <sheet name="MODEL" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1668,237 +1669,6 @@
     <t>TKL1</t>
   </si>
   <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>g6</t>
-  </si>
-  <si>
-    <t>g7</t>
-  </si>
-  <si>
-    <t>g8</t>
-  </si>
-  <si>
-    <t>g9</t>
-  </si>
-  <si>
-    <t>g10</t>
-  </si>
-  <si>
-    <t>g11</t>
-  </si>
-  <si>
-    <t>g12</t>
-  </si>
-  <si>
-    <t>g13</t>
-  </si>
-  <si>
-    <t>g14</t>
-  </si>
-  <si>
-    <t>g15</t>
-  </si>
-  <si>
-    <t>g16</t>
-  </si>
-  <si>
-    <t>g17</t>
-  </si>
-  <si>
-    <t>g18</t>
-  </si>
-  <si>
-    <t>g19</t>
-  </si>
-  <si>
-    <t>g20</t>
-  </si>
-  <si>
-    <t>g21</t>
-  </si>
-  <si>
-    <t>g22</t>
-  </si>
-  <si>
-    <t>g23</t>
-  </si>
-  <si>
-    <t>g24</t>
-  </si>
-  <si>
-    <t>g25</t>
-  </si>
-  <si>
-    <t>g26</t>
-  </si>
-  <si>
-    <t>g27</t>
-  </si>
-  <si>
-    <t>g28</t>
-  </si>
-  <si>
-    <t>g29</t>
-  </si>
-  <si>
-    <t>g30</t>
-  </si>
-  <si>
-    <t>g31</t>
-  </si>
-  <si>
-    <t>g32</t>
-  </si>
-  <si>
-    <t>g33</t>
-  </si>
-  <si>
-    <t>g34</t>
-  </si>
-  <si>
-    <t>g35</t>
-  </si>
-  <si>
-    <t>g36</t>
-  </si>
-  <si>
-    <t>g37</t>
-  </si>
-  <si>
-    <t>g38</t>
-  </si>
-  <si>
-    <t>g39</t>
-  </si>
-  <si>
-    <t>g40</t>
-  </si>
-  <si>
-    <t>g41</t>
-  </si>
-  <si>
-    <t>g42</t>
-  </si>
-  <si>
-    <t>g43</t>
-  </si>
-  <si>
-    <t>g44</t>
-  </si>
-  <si>
-    <t>g45</t>
-  </si>
-  <si>
-    <t>g46</t>
-  </si>
-  <si>
-    <t>g47</t>
-  </si>
-  <si>
-    <t>g48</t>
-  </si>
-  <si>
-    <t>g49</t>
-  </si>
-  <si>
-    <t>g50</t>
-  </si>
-  <si>
-    <t>g51</t>
-  </si>
-  <si>
-    <t>g52</t>
-  </si>
-  <si>
-    <t>g53</t>
-  </si>
-  <si>
-    <t>g54</t>
-  </si>
-  <si>
-    <t>g55</t>
-  </si>
-  <si>
-    <t>g56</t>
-  </si>
-  <si>
-    <t>g57</t>
-  </si>
-  <si>
-    <t>g58</t>
-  </si>
-  <si>
-    <t>g59</t>
-  </si>
-  <si>
-    <t>g60</t>
-  </si>
-  <si>
-    <t>g61</t>
-  </si>
-  <si>
-    <t>(g14 or g16 or g5)</t>
-  </si>
-  <si>
-    <t>(g20 or g47)</t>
-  </si>
-  <si>
-    <t>(g30 or g32 or g19)</t>
-  </si>
-  <si>
-    <t>(g38 or g8 or g52)</t>
-  </si>
-  <si>
-    <t>(g23 or g26)</t>
-  </si>
-  <si>
-    <t>(g51 or g7 or g25 or g22)</t>
-  </si>
-  <si>
-    <t>(g24 or g27)</t>
-  </si>
-  <si>
-    <t>(g2 or g61)</t>
-  </si>
-  <si>
-    <t>(g9 or g53)</t>
-  </si>
-  <si>
-    <t>(g28 or g12)</t>
-  </si>
-  <si>
-    <t>(g18 or g41 or g40)</t>
-  </si>
-  <si>
-    <t>(g17 or g48 or g54)</t>
-  </si>
-  <si>
-    <t>(g1 or g42)</t>
-  </si>
-  <si>
-    <t>(g15 or g4)</t>
-  </si>
-  <si>
-    <t>(g50 or g60)</t>
-  </si>
-  <si>
-    <t>(g21 or g56)</t>
-  </si>
-  <si>
     <t>kegg.genes/sce:YAL054C;sgd/S000000050;uniprot/Q01574</t>
   </si>
   <si>
@@ -2080,12 +1850,243 @@
   </si>
   <si>
     <t>kegg.genes/sce:YPR074C;sgd/S000006278;uniprot/P23254</t>
+  </si>
+  <si>
+    <t>YFR053C or YGL253W or YCL040W</t>
+  </si>
+  <si>
+    <t>YBR196C</t>
+  </si>
+  <si>
+    <t>YGR240C or YMR205C</t>
+  </si>
+  <si>
+    <t>YLR377C</t>
+  </si>
+  <si>
+    <t>YKL060C</t>
+  </si>
+  <si>
+    <t>YDR050C</t>
+  </si>
+  <si>
+    <t>YJL052W or YJR009C or YGR192C</t>
+  </si>
+  <si>
+    <t>YCR012W</t>
+  </si>
+  <si>
+    <t>YKL152C or YDL021W or YOL056W</t>
+  </si>
+  <si>
+    <t>YGR254W or YHR174W</t>
+  </si>
+  <si>
+    <t>YOR347C</t>
+  </si>
+  <si>
+    <t>YNL241C</t>
+  </si>
+  <si>
+    <t>YNR034W or YCR073W-A or YHR163W or YGR248W</t>
+  </si>
+  <si>
+    <t>YGR256W or YHR183W</t>
+  </si>
+  <si>
+    <t>YOR095C</t>
+  </si>
+  <si>
+    <t>YJL121C</t>
+  </si>
+  <si>
+    <t>YBR117C or YPR074C</t>
+  </si>
+  <si>
+    <t>YLR354C</t>
+  </si>
+  <si>
+    <t>YDL022W or YOL059W</t>
+  </si>
+  <si>
+    <t>YIL053W or YER062C</t>
+  </si>
+  <si>
+    <t>YGR087C or YLR134W or YLR044C</t>
+  </si>
+  <si>
+    <t>YGL256W or YMR303C or YOL086C</t>
+  </si>
+  <si>
+    <t>YPL061W</t>
+  </si>
+  <si>
+    <t>YAL054C or YLR153C</t>
+  </si>
+  <si>
+    <t>YER178W</t>
+  </si>
+  <si>
+    <t>YGL062W or YBR218C</t>
+  </si>
+  <si>
+    <t>YNR001C or YPR001W</t>
+  </si>
+  <si>
+    <t>YLR304C</t>
+  </si>
+  <si>
+    <t>YDL066W</t>
+  </si>
+  <si>
+    <t>YIL125W</t>
+  </si>
+  <si>
+    <t>YGR244C or YOR142W</t>
+  </si>
+  <si>
+    <t>YKL141W</t>
+  </si>
+  <si>
+    <t>YJR051W</t>
+  </si>
+  <si>
+    <t>YPL262W</t>
+  </si>
+  <si>
+    <t>YKL085W</t>
+  </si>
+  <si>
+    <t>YKL029C</t>
+  </si>
+  <si>
+    <t>YKR097W</t>
+  </si>
+  <si>
+    <t>YML042W</t>
+  </si>
+  <si>
+    <t>YAL054C</t>
+  </si>
+  <si>
+    <t>YBR117C</t>
+  </si>
+  <si>
+    <t>YBR218C</t>
+  </si>
+  <si>
+    <t>YCL040W</t>
+  </si>
+  <si>
+    <t>YCR073W-A</t>
+  </si>
+  <si>
+    <t>YDL021W</t>
+  </si>
+  <si>
+    <t>YDL022W</t>
+  </si>
+  <si>
+    <t>YER062C</t>
+  </si>
+  <si>
+    <t>YFR053C</t>
+  </si>
+  <si>
+    <t>YGL062W</t>
+  </si>
+  <si>
+    <t>YGL253W</t>
+  </si>
+  <si>
+    <t>YGL256W</t>
+  </si>
+  <si>
+    <t>YGR087C</t>
+  </si>
+  <si>
+    <t>YGR192C</t>
+  </si>
+  <si>
+    <t>YGR240C</t>
+  </si>
+  <si>
+    <t>YGR244C</t>
+  </si>
+  <si>
+    <t>YGR248W</t>
+  </si>
+  <si>
+    <t>YGR254W</t>
+  </si>
+  <si>
+    <t>YGR256W</t>
+  </si>
+  <si>
+    <t>YHR163W</t>
+  </si>
+  <si>
+    <t>YHR174W</t>
+  </si>
+  <si>
+    <t>YHR183W</t>
+  </si>
+  <si>
+    <t>YIL053W</t>
+  </si>
+  <si>
+    <t>YJL052W</t>
+  </si>
+  <si>
+    <t>YJR009C</t>
+  </si>
+  <si>
+    <t>YKL152C</t>
+  </si>
+  <si>
+    <t>YLR044C</t>
+  </si>
+  <si>
+    <t>YLR134W</t>
+  </si>
+  <si>
+    <t>YLR153C</t>
+  </si>
+  <si>
+    <t>YMR205C</t>
+  </si>
+  <si>
+    <t>YMR303C</t>
+  </si>
+  <si>
+    <t>YNR001C</t>
+  </si>
+  <si>
+    <t>YNR034W</t>
+  </si>
+  <si>
+    <t>YOL056W</t>
+  </si>
+  <si>
+    <t>YOL059W</t>
+  </si>
+  <si>
+    <t>YOL086C</t>
+  </si>
+  <si>
+    <t>YOR142W</t>
+  </si>
+  <si>
+    <t>YPR001W</t>
+  </si>
+  <si>
+    <t>YPR074C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2098,26 +2099,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2148,7 +2154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2156,7 +2162,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2172,6 +2177,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2439,32 +2447,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14:F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="61.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="15" width="30.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2514,19 +2522,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2540,7 +2548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,7 +2565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2571,7 +2579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2585,7 +2593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2599,7 +2607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2616,7 +2624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2633,7 +2641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2650,19 +2658,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
@@ -2679,7 +2687,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
@@ -2690,13 +2698,13 @@
         <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2707,13 +2715,13 @@
         <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2724,13 +2732,13 @@
         <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
@@ -2741,13 +2749,13 @@
         <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2758,13 +2766,13 @@
         <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>555</v>
+        <v>611</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
@@ -2775,13 +2783,13 @@
         <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
@@ -2792,13 +2800,13 @@
         <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
@@ -2809,13 +2817,13 @@
         <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>69</v>
       </c>
@@ -2826,13 +2834,13 @@
         <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
@@ -2843,13 +2851,13 @@
         <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
@@ -2860,13 +2868,13 @@
         <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
@@ -2877,13 +2885,13 @@
         <v>80</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>81</v>
       </c>
@@ -2894,13 +2902,13 @@
         <v>83</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>84</v>
       </c>
@@ -2911,13 +2919,13 @@
         <v>86</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
@@ -2928,13 +2936,13 @@
         <v>89</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>575</v>
+        <v>621</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>90</v>
       </c>
@@ -2945,13 +2953,13 @@
         <v>92</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>93</v>
       </c>
@@ -2962,13 +2970,13 @@
         <v>95</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>96</v>
       </c>
@@ -2979,13 +2987,13 @@
         <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>98</v>
       </c>
@@ -2996,13 +3004,13 @@
         <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3013,13 +3021,13 @@
         <v>103</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3030,13 +3038,13 @@
         <v>106</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3047,13 +3055,13 @@
         <v>109</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3064,13 +3072,13 @@
         <v>112</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3081,13 +3089,13 @@
         <v>115</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -3098,13 +3106,13 @@
         <v>118</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>557</v>
+        <v>630</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>120</v>
       </c>
@@ -3115,13 +3123,13 @@
         <v>122</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>123</v>
       </c>
@@ -3132,13 +3140,13 @@
         <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>126</v>
       </c>
@@ -3149,13 +3157,13 @@
         <v>128</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -3166,13 +3174,13 @@
         <v>131</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>554</v>
+        <v>634</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3183,13 +3191,13 @@
         <v>134</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>135</v>
       </c>
@@ -3200,13 +3208,13 @@
         <v>137</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -3217,13 +3225,13 @@
         <v>140</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>581</v>
+        <v>637</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3234,13 +3242,13 @@
         <v>143</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>577</v>
+        <v>638</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3251,13 +3259,13 @@
         <v>146</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3268,13 +3276,13 @@
         <v>149</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3285,13 +3293,13 @@
         <v>152</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3302,13 +3310,13 @@
         <v>155</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>583</v>
+        <v>642</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3319,13 +3327,13 @@
         <v>158</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>590</v>
+        <v>643</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -3339,19 +3347,19 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>162</v>
       </c>
@@ -3365,7 +3373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>165</v>
       </c>
@@ -3379,7 +3387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>168</v>
       </c>
@@ -3393,7 +3401,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>171</v>
       </c>
@@ -3407,7 +3415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>174</v>
       </c>
@@ -3427,7 +3435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3435,18 +3443,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3478,7 +3486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>181</v>
       </c>
@@ -3501,7 +3509,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
@@ -3524,7 +3532,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>193</v>
       </c>
@@ -3547,7 +3555,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>199</v>
       </c>
@@ -3570,7 +3578,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>204</v>
       </c>
@@ -3593,7 +3601,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>210</v>
       </c>
@@ -3616,7 +3624,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>216</v>
       </c>
@@ -3639,7 +3647,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>222</v>
       </c>
@@ -3662,7 +3670,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>228</v>
       </c>
@@ -3685,7 +3693,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>234</v>
       </c>
@@ -3711,7 +3719,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>236</v>
       </c>
@@ -3734,7 +3742,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>242</v>
       </c>
@@ -3757,7 +3765,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>244</v>
       </c>
@@ -3780,7 +3788,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>250</v>
       </c>
@@ -3803,7 +3811,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>256</v>
       </c>
@@ -3829,7 +3837,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>258</v>
       </c>
@@ -3852,7 +3860,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>264</v>
       </c>
@@ -3875,7 +3883,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>270</v>
       </c>
@@ -3898,7 +3906,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>276</v>
       </c>
@@ -3921,7 +3929,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>281</v>
       </c>
@@ -3935,7 +3943,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>284</v>
       </c>
@@ -3952,7 +3960,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>286</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>292</v>
       </c>
@@ -3998,7 +4006,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>297</v>
       </c>
@@ -4021,7 +4029,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>299</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>301</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>307</v>
       </c>
@@ -4093,7 +4101,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>309</v>
       </c>
@@ -4116,7 +4124,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>315</v>
       </c>
@@ -4139,7 +4147,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>321</v>
       </c>
@@ -4162,7 +4170,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>327</v>
       </c>
@@ -4185,7 +4193,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>332</v>
       </c>
@@ -4208,7 +4216,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>337</v>
       </c>
@@ -4231,7 +4239,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>343</v>
       </c>
@@ -4257,7 +4265,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>345</v>
       </c>
@@ -4280,7 +4288,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>351</v>
       </c>
@@ -4303,7 +4311,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>357</v>
       </c>
@@ -4326,7 +4334,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>363</v>
       </c>
@@ -4349,7 +4357,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>369</v>
       </c>
@@ -4375,7 +4383,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>371</v>
       </c>
@@ -4395,7 +4403,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>376</v>
       </c>
@@ -4418,7 +4426,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>381</v>
       </c>
@@ -4441,7 +4449,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>386</v>
       </c>
@@ -4464,7 +4472,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>392</v>
       </c>
@@ -4487,7 +4495,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>394</v>
       </c>
@@ -4510,7 +4518,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>400</v>
       </c>
@@ -4533,7 +4541,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>402</v>
       </c>
@@ -4556,7 +4564,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>408</v>
       </c>
@@ -4579,7 +4587,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>410</v>
       </c>
@@ -4602,7 +4610,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>416</v>
       </c>
@@ -4625,7 +4633,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>418</v>
       </c>
@@ -4648,7 +4656,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>423</v>
       </c>
@@ -4674,7 +4682,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>425</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>431</v>
       </c>
@@ -4720,7 +4728,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>437</v>
       </c>
@@ -4743,7 +4751,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>443</v>
       </c>
@@ -4766,7 +4774,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>449</v>
       </c>
@@ -4789,7 +4797,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>455</v>
       </c>
@@ -4812,7 +4820,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>461</v>
       </c>
@@ -4841,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4849,16 +4857,16 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4875,7 +4883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
@@ -4883,7 +4891,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>119</v>
       </c>
@@ -4891,7 +4899,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
@@ -4905,46 +4913,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" t="s">
         <v>545</v>
-      </c>
-      <c r="C2" t="s">
-        <v>622</v>
       </c>
       <c r="D2" t="s">
         <v>492</v>
@@ -4953,12 +4961,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" t="s">
         <v>546</v>
-      </c>
-      <c r="C3" t="s">
-        <v>623</v>
       </c>
       <c r="D3" t="s">
         <v>493</v>
@@ -4967,12 +4975,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" t="s">
         <v>547</v>
-      </c>
-      <c r="C4" t="s">
-        <v>624</v>
       </c>
       <c r="D4" t="s">
         <v>494</v>
@@ -4981,12 +4989,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C5" t="s">
         <v>548</v>
-      </c>
-      <c r="C5" t="s">
-        <v>625</v>
       </c>
       <c r="D5" t="s">
         <v>495</v>
@@ -4995,12 +5003,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6" t="s">
         <v>549</v>
-      </c>
-      <c r="C6" t="s">
-        <v>626</v>
       </c>
       <c r="D6" t="s">
         <v>496</v>
@@ -5009,12 +5017,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" t="s">
         <v>550</v>
-      </c>
-      <c r="C7" t="s">
-        <v>627</v>
       </c>
       <c r="D7" t="s">
         <v>497</v>
@@ -5023,12 +5031,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C8" t="s">
         <v>551</v>
-      </c>
-      <c r="C8" t="s">
-        <v>628</v>
       </c>
       <c r="D8" t="s">
         <v>498</v>
@@ -5037,12 +5045,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C9" t="s">
         <v>552</v>
-      </c>
-      <c r="C9" t="s">
-        <v>629</v>
       </c>
       <c r="D9" t="s">
         <v>499</v>
@@ -5051,12 +5059,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C10" t="s">
         <v>553</v>
-      </c>
-      <c r="C10" t="s">
-        <v>630</v>
       </c>
       <c r="D10" t="s">
         <v>500</v>
@@ -5065,12 +5073,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C11" t="s">
         <v>554</v>
-      </c>
-      <c r="C11" t="s">
-        <v>631</v>
       </c>
       <c r="D11" t="s">
         <v>129</v>
@@ -5079,12 +5087,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C12" t="s">
         <v>555</v>
-      </c>
-      <c r="C12" t="s">
-        <v>632</v>
       </c>
       <c r="D12" t="s">
         <v>501</v>
@@ -5093,12 +5101,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>651</v>
+      </c>
+      <c r="C13" t="s">
         <v>556</v>
-      </c>
-      <c r="C13" t="s">
-        <v>633</v>
       </c>
       <c r="D13" t="s">
         <v>502</v>
@@ -5107,12 +5115,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>630</v>
+      </c>
+      <c r="C14" t="s">
         <v>557</v>
-      </c>
-      <c r="C14" t="s">
-        <v>634</v>
       </c>
       <c r="D14" t="s">
         <v>503</v>
@@ -5121,12 +5129,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" t="s">
         <v>558</v>
-      </c>
-      <c r="C15" t="s">
-        <v>635</v>
       </c>
       <c r="D15" t="s">
         <v>504</v>
@@ -5135,12 +5143,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>653</v>
+      </c>
+      <c r="C16" t="s">
         <v>559</v>
-      </c>
-      <c r="C16" t="s">
-        <v>636</v>
       </c>
       <c r="D16" t="s">
         <v>505</v>
@@ -5149,12 +5157,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>654</v>
+      </c>
+      <c r="C17" t="s">
         <v>560</v>
-      </c>
-      <c r="C17" t="s">
-        <v>637</v>
       </c>
       <c r="D17" t="s">
         <v>506</v>
@@ -5163,12 +5171,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>655</v>
+      </c>
+      <c r="C18" t="s">
         <v>561</v>
-      </c>
-      <c r="C18" t="s">
-        <v>638</v>
       </c>
       <c r="D18" t="s">
         <v>507</v>
@@ -5177,12 +5185,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>656</v>
+      </c>
+      <c r="C19" t="s">
         <v>562</v>
-      </c>
-      <c r="C19" t="s">
-        <v>639</v>
       </c>
       <c r="D19" t="s">
         <v>508</v>
@@ -5191,12 +5199,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>657</v>
+      </c>
+      <c r="C20" t="s">
         <v>563</v>
-      </c>
-      <c r="C20" t="s">
-        <v>640</v>
       </c>
       <c r="D20" t="s">
         <v>509</v>
@@ -5205,12 +5213,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>658</v>
+      </c>
+      <c r="C21" t="s">
         <v>564</v>
-      </c>
-      <c r="C21" t="s">
-        <v>641</v>
       </c>
       <c r="D21" t="s">
         <v>510</v>
@@ -5219,12 +5227,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>659</v>
+      </c>
+      <c r="C22" t="s">
         <v>565</v>
-      </c>
-      <c r="C22" t="s">
-        <v>642</v>
       </c>
       <c r="D22" t="s">
         <v>511</v>
@@ -5233,12 +5241,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>660</v>
+      </c>
+      <c r="C23" t="s">
         <v>566</v>
-      </c>
-      <c r="C23" t="s">
-        <v>643</v>
       </c>
       <c r="D23" t="s">
         <v>512</v>
@@ -5247,12 +5255,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>661</v>
+      </c>
+      <c r="C24" t="s">
         <v>567</v>
-      </c>
-      <c r="C24" t="s">
-        <v>644</v>
       </c>
       <c r="D24" t="s">
         <v>513</v>
@@ -5261,12 +5269,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>662</v>
+      </c>
+      <c r="C25" t="s">
         <v>568</v>
-      </c>
-      <c r="C25" t="s">
-        <v>645</v>
       </c>
       <c r="D25" t="s">
         <v>514</v>
@@ -5275,12 +5283,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>663</v>
+      </c>
+      <c r="C26" t="s">
         <v>569</v>
-      </c>
-      <c r="C26" t="s">
-        <v>646</v>
       </c>
       <c r="D26" t="s">
         <v>515</v>
@@ -5289,12 +5297,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>664</v>
+      </c>
+      <c r="C27" t="s">
         <v>570</v>
-      </c>
-      <c r="C27" t="s">
-        <v>647</v>
       </c>
       <c r="D27" t="s">
         <v>516</v>
@@ -5303,12 +5311,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>665</v>
+      </c>
+      <c r="C28" t="s">
         <v>571</v>
-      </c>
-      <c r="C28" t="s">
-        <v>648</v>
       </c>
       <c r="D28" t="s">
         <v>517</v>
@@ -5317,12 +5325,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>666</v>
+      </c>
+      <c r="C29" t="s">
         <v>572</v>
-      </c>
-      <c r="C29" t="s">
-        <v>649</v>
       </c>
       <c r="D29" t="s">
         <v>518</v>
@@ -5331,12 +5339,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>635</v>
+      </c>
+      <c r="C30" t="s">
         <v>573</v>
-      </c>
-      <c r="C30" t="s">
-        <v>650</v>
       </c>
       <c r="D30" t="s">
         <v>519</v>
@@ -5345,12 +5353,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>667</v>
+      </c>
+      <c r="C31" t="s">
         <v>574</v>
-      </c>
-      <c r="C31" t="s">
-        <v>651</v>
       </c>
       <c r="D31" t="s">
         <v>520</v>
@@ -5359,12 +5367,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="7" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>621</v>
+      </c>
+      <c r="C32" t="s">
         <v>575</v>
-      </c>
-      <c r="C32" t="s">
-        <v>652</v>
       </c>
       <c r="D32" t="s">
         <v>521</v>
@@ -5373,12 +5381,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>668</v>
+      </c>
+      <c r="C33" t="s">
         <v>576</v>
-      </c>
-      <c r="C33" t="s">
-        <v>653</v>
       </c>
       <c r="D33" t="s">
         <v>522</v>
@@ -5387,12 +5395,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>638</v>
+      </c>
+      <c r="C34" t="s">
         <v>577</v>
-      </c>
-      <c r="C34" t="s">
-        <v>654</v>
       </c>
       <c r="D34" t="s">
         <v>523</v>
@@ -5401,12 +5409,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>641</v>
+      </c>
+      <c r="C35" t="s">
         <v>578</v>
-      </c>
-      <c r="C35" t="s">
-        <v>655</v>
       </c>
       <c r="D35" t="s">
         <v>150</v>
@@ -5415,12 +5423,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="7" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>610</v>
+      </c>
+      <c r="C36" t="s">
         <v>579</v>
-      </c>
-      <c r="C36" t="s">
-        <v>656</v>
       </c>
       <c r="D36" t="s">
         <v>524</v>
@@ -5429,12 +5437,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>640</v>
+      </c>
+      <c r="C37" t="s">
         <v>580</v>
-      </c>
-      <c r="C37" t="s">
-        <v>657</v>
       </c>
       <c r="D37" t="s">
         <v>147</v>
@@ -5443,12 +5451,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>637</v>
+      </c>
+      <c r="C38" t="s">
         <v>581</v>
-      </c>
-      <c r="C38" t="s">
-        <v>658</v>
       </c>
       <c r="D38" t="s">
         <v>525</v>
@@ -5457,12 +5465,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="7" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>669</v>
+      </c>
+      <c r="C39" t="s">
         <v>582</v>
-      </c>
-      <c r="C39" t="s">
-        <v>659</v>
       </c>
       <c r="D39" t="s">
         <v>526</v>
@@ -5471,12 +5479,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>642</v>
+      </c>
+      <c r="C40" t="s">
         <v>583</v>
-      </c>
-      <c r="C40" t="s">
-        <v>660</v>
       </c>
       <c r="D40" t="s">
         <v>527</v>
@@ -5485,12 +5493,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="7" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>670</v>
+      </c>
+      <c r="C41" t="s">
         <v>584</v>
-      </c>
-      <c r="C41" t="s">
-        <v>661</v>
       </c>
       <c r="D41" t="s">
         <v>528</v>
@@ -5499,12 +5507,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="7" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>671</v>
+      </c>
+      <c r="C42" t="s">
         <v>585</v>
-      </c>
-      <c r="C42" t="s">
-        <v>662</v>
       </c>
       <c r="D42" t="s">
         <v>529</v>
@@ -5513,12 +5521,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="7" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>672</v>
+      </c>
+      <c r="C43" t="s">
         <v>586</v>
-      </c>
-      <c r="C43" t="s">
-        <v>663</v>
       </c>
       <c r="D43" t="s">
         <v>530</v>
@@ -5527,12 +5535,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>633</v>
+      </c>
+      <c r="C44" t="s">
         <v>587</v>
-      </c>
-      <c r="C44" t="s">
-        <v>664</v>
       </c>
       <c r="D44" t="s">
         <v>531</v>
@@ -5541,12 +5549,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>623</v>
+      </c>
+      <c r="C45" t="s">
         <v>588</v>
-      </c>
-      <c r="C45" t="s">
-        <v>665</v>
       </c>
       <c r="D45" t="s">
         <v>93</v>
@@ -5555,12 +5563,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>609</v>
+      </c>
+      <c r="C46" t="s">
         <v>589</v>
-      </c>
-      <c r="C46" t="s">
-        <v>666</v>
       </c>
       <c r="D46" t="s">
         <v>532</v>
@@ -5569,12 +5577,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>643</v>
+      </c>
+      <c r="C47" t="s">
         <v>590</v>
-      </c>
-      <c r="C47" t="s">
-        <v>667</v>
       </c>
       <c r="D47" t="s">
         <v>156</v>
@@ -5583,12 +5591,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>673</v>
+      </c>
+      <c r="C48" t="s">
         <v>591</v>
-      </c>
-      <c r="C48" t="s">
-        <v>668</v>
       </c>
       <c r="D48" t="s">
         <v>533</v>
@@ -5597,12 +5605,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="7" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>674</v>
+      </c>
+      <c r="C49" t="s">
         <v>592</v>
-      </c>
-      <c r="C49" t="s">
-        <v>669</v>
       </c>
       <c r="D49" t="s">
         <v>534</v>
@@ -5611,12 +5619,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="7" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>617</v>
+      </c>
+      <c r="C50" t="s">
         <v>593</v>
-      </c>
-      <c r="C50" t="s">
-        <v>670</v>
       </c>
       <c r="D50" t="s">
         <v>535</v>
@@ -5625,12 +5633,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>675</v>
+      </c>
+      <c r="C51" t="s">
         <v>594</v>
-      </c>
-      <c r="C51" t="s">
-        <v>671</v>
       </c>
       <c r="D51" t="s">
         <v>536</v>
@@ -5639,12 +5647,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="7" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>676</v>
+      </c>
+      <c r="C52" t="s">
         <v>595</v>
-      </c>
-      <c r="C52" t="s">
-        <v>672</v>
       </c>
       <c r="D52" t="s">
         <v>537</v>
@@ -5653,12 +5661,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="7" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>677</v>
+      </c>
+      <c r="C53" t="s">
         <v>596</v>
-      </c>
-      <c r="C53" t="s">
-        <v>673</v>
       </c>
       <c r="D53" t="s">
         <v>538</v>
@@ -5667,12 +5675,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="7" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>678</v>
+      </c>
+      <c r="C54" t="s">
         <v>597</v>
-      </c>
-      <c r="C54" t="s">
-        <v>674</v>
       </c>
       <c r="D54" t="s">
         <v>539</v>
@@ -5681,12 +5689,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="7" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>679</v>
+      </c>
+      <c r="C55" t="s">
         <v>598</v>
-      </c>
-      <c r="C55" t="s">
-        <v>675</v>
       </c>
       <c r="D55" t="s">
         <v>107</v>
@@ -5695,12 +5703,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>620</v>
+      </c>
+      <c r="C56" t="s">
         <v>599</v>
-      </c>
-      <c r="C56" t="s">
-        <v>676</v>
       </c>
       <c r="D56" t="s">
         <v>540</v>
@@ -5709,12 +5717,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="7" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>680</v>
+      </c>
+      <c r="C57" t="s">
         <v>600</v>
-      </c>
-      <c r="C57" t="s">
-        <v>677</v>
       </c>
       <c r="D57" t="s">
         <v>541</v>
@@ -5723,12 +5731,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="7" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>616</v>
+      </c>
+      <c r="C58" t="s">
         <v>601</v>
-      </c>
-      <c r="C58" t="s">
-        <v>678</v>
       </c>
       <c r="D58" t="s">
         <v>542</v>
@@ -5737,12 +5745,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="7" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>628</v>
+      </c>
+      <c r="C59" t="s">
         <v>602</v>
-      </c>
-      <c r="C59" t="s">
-        <v>679</v>
       </c>
       <c r="D59" t="s">
         <v>110</v>
@@ -5751,12 +5759,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="7" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C60" t="s">
         <v>603</v>
-      </c>
-      <c r="C60" t="s">
-        <v>680</v>
       </c>
       <c r="D60" t="s">
         <v>144</v>
@@ -5765,12 +5773,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="7" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>681</v>
+      </c>
+      <c r="C61" t="s">
         <v>604</v>
-      </c>
-      <c r="C61" t="s">
-        <v>681</v>
       </c>
       <c r="D61" t="s">
         <v>543</v>
@@ -5779,12 +5787,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="7" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>682</v>
+      </c>
+      <c r="C62" t="s">
         <v>605</v>
-      </c>
-      <c r="C62" t="s">
-        <v>682</v>
       </c>
       <c r="D62" t="s">
         <v>544</v>
@@ -5799,7 +5807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5807,79 +5815,79 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-1000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>1000</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>488</v>
       </c>
     </row>

--- a/tutorial/smallYeast.xlsx
+++ b/tutorial/smallYeast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\GitHub\RAVEN\tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08BA64E1-1B35-4C5A-9706-87D03289F031}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F97754-24DE-46EB-B384-A41B0BE279CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="435" windowWidth="28800" windowHeight="16455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RXNS" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,11 @@
     <sheet name="MODEL" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="644">
   <si>
     <t>#</t>
   </si>
@@ -166,6 +158,9 @@
     <t>alpha-D-glucose[c] + ATP[c] =&gt; ADP[c] + alpha-D-glucose 6-phosphate[c]</t>
   </si>
   <si>
+    <t>YFR053C or YGL253W or YCL040W</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -178,6 +173,9 @@
     <t>alpha-D-glucose 6-phosphate[c] &lt;=&gt; beta-D-fructofuranose 6-phosphate[c]</t>
   </si>
   <si>
+    <t>YBR196C</t>
+  </si>
+  <si>
     <t>PFK</t>
   </si>
   <si>
@@ -187,6 +185,9 @@
     <t>ATP[c] + beta-D-fructofuranose 6-phosphate[c] =&gt; ADP[c] + beta-D-fructofuranose 1,6-bisphosphate[c]</t>
   </si>
   <si>
+    <t>YGR240C or YMR205C</t>
+  </si>
+  <si>
     <t>FBP</t>
   </si>
   <si>
@@ -196,6 +197,9 @@
     <t>beta-D-fructofuranose 1,6-bisphosphate[c] =&gt; beta-D-fructofuranose 6-phosphate[c] + phosphate[c]</t>
   </si>
   <si>
+    <t>YLR377C</t>
+  </si>
+  <si>
     <t>FBA</t>
   </si>
   <si>
@@ -205,6 +209,9 @@
     <t>beta-D-fructofuranose 1,6-bisphosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c] + glycerone phosphate[c]</t>
   </si>
   <si>
+    <t>YKL060C</t>
+  </si>
+  <si>
     <t>TPI</t>
   </si>
   <si>
@@ -214,6 +221,9 @@
     <t>glycerone phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c]</t>
   </si>
   <si>
+    <t>YDR050C</t>
+  </si>
+  <si>
     <t>GLD</t>
   </si>
   <si>
@@ -223,6 +233,9 @@
     <t>D-glyceraldehyde 3-phosphate[c] + NAD(+)[c] + phosphate[c] &lt;=&gt; 3-phospho-D-glyceroyl phosphate[c] + NADH[c]</t>
   </si>
   <si>
+    <t>YJL052W or YJR009C or YGR192C</t>
+  </si>
+  <si>
     <t>PGK</t>
   </si>
   <si>
@@ -232,6 +245,9 @@
     <t>3-phospho-D-glyceroyl phosphate[c] + ADP[c] &lt;=&gt; 3-phospho-D-glycerate[c] + ATP[c]</t>
   </si>
   <si>
+    <t>YCR012W</t>
+  </si>
+  <si>
     <t>GPM</t>
   </si>
   <si>
@@ -241,6 +257,9 @@
     <t>3-phospho-D-glycerate[c] &lt;=&gt; 2-phospho-D-glycerate[c]</t>
   </si>
   <si>
+    <t>YKL152C or YDL021W or YOL056W</t>
+  </si>
+  <si>
     <t>ENO</t>
   </si>
   <si>
@@ -250,6 +269,9 @@
     <t>2-phospho-D-glycerate[c] &lt;=&gt; phosphoenolpyruvate[c]</t>
   </si>
   <si>
+    <t>YGR254W or YHR174W</t>
+  </si>
+  <si>
     <t>PYK</t>
   </si>
   <si>
@@ -259,6 +281,9 @@
     <t>ADP[c] + phosphoenolpyruvate[c] =&gt; ATP[c] + pyruvate[c]</t>
   </si>
   <si>
+    <t>YOR347C</t>
+  </si>
+  <si>
     <t>ZWF</t>
   </si>
   <si>
@@ -268,6 +293,9 @@
     <t>alpha-D-glucose 6-phosphate[c] + NADP(+)[c] =&gt; 6-O-phosphono-D-glucono-1,5-lactone[c] + NADPH[c]</t>
   </si>
   <si>
+    <t>YNL241C</t>
+  </si>
+  <si>
     <t>PGL</t>
   </si>
   <si>
@@ -277,6 +305,9 @@
     <t>6-O-phosphono-D-glucono-1,5-lactone[c] =&gt; 6-phospho-D-gluconate[c]</t>
   </si>
   <si>
+    <t>YNR034W or YCR073W-A or YHR163W or YGR248W</t>
+  </si>
+  <si>
     <t>GND</t>
   </si>
   <si>
@@ -286,6 +317,9 @@
     <t>6-phospho-D-gluconate[c] + NADP(+)[c] =&gt; CO2[c] + D-ribulose 5-phosphate[c] + NADPH[c]</t>
   </si>
   <si>
+    <t>YGR256W or YHR183W</t>
+  </si>
+  <si>
     <t>RPI</t>
   </si>
   <si>
@@ -295,6 +329,9 @@
     <t>D-ribulose 5-phosphate[c] &lt;=&gt; D-ribose 5-phosphate[c]</t>
   </si>
   <si>
+    <t>YOR095C</t>
+  </si>
+  <si>
     <t>RPE</t>
   </si>
   <si>
@@ -304,6 +341,9 @@
     <t>D-ribulose 5-phosphate[c] &lt;=&gt; D-xylulose 5-phosphate[c]</t>
   </si>
   <si>
+    <t>YJL121C</t>
+  </si>
+  <si>
     <t>TKI1TKI2a</t>
   </si>
   <si>
@@ -313,6 +353,9 @@
     <t>D-ribose 5-phosphate[c] + D-xylulose 5-phosphate[c] &lt;=&gt; D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c]</t>
   </si>
   <si>
+    <t>YBR117C or YPR074C</t>
+  </si>
+  <si>
     <t>TAL1</t>
   </si>
   <si>
@@ -322,6 +365,9 @@
     <t>D-glyceraldehyde 3-phosphate[c] + sedoheptulose 7-phosphate[c] &lt;=&gt; beta-D-fructofuranose 6-phosphate[c] + D-erythrose 4-phosphate[c]</t>
   </si>
   <si>
+    <t>YLR354C</t>
+  </si>
+  <si>
     <t>TKI1TKI2b</t>
   </si>
   <si>
@@ -337,6 +383,9 @@
     <t>glycerone phosphate[c] + NADH[c] =&gt; glycerol monophosphate[c] + NAD(+)[c]</t>
   </si>
   <si>
+    <t>YDL022W or YOL059W</t>
+  </si>
+  <si>
     <t>GPP</t>
   </si>
   <si>
@@ -346,6 +395,9 @@
     <t>glycerol monophosphate[c] =&gt; glycerol[c] + phosphate[c]</t>
   </si>
   <si>
+    <t>YIL053W or YER062C</t>
+  </si>
+  <si>
     <t>PDC</t>
   </si>
   <si>
@@ -355,6 +407,9 @@
     <t>pyruvate[c] =&gt; acetaldehyde[c] + CO2[c]</t>
   </si>
   <si>
+    <t>YGR087C or YLR134W or YLR044C</t>
+  </si>
+  <si>
     <t>ADH1</t>
   </si>
   <si>
@@ -364,6 +419,9 @@
     <t>acetaldehyde[c] + NADH[c] &lt;=&gt; ethanol[c] + NAD(+)[c]</t>
   </si>
   <si>
+    <t>YGL256W or YMR303C or YOL086C</t>
+  </si>
+  <si>
     <t>ALD6</t>
   </si>
   <si>
@@ -373,6 +431,9 @@
     <t>acetaldehyde[c] + NADP(+)[c] =&gt; acetate[c] + NADPH[c]</t>
   </si>
   <si>
+    <t>YPL061W</t>
+  </si>
+  <si>
     <t>ACS</t>
   </si>
   <si>
@@ -382,6 +443,9 @@
     <t>acetate[c] + 2 ATP[c] + coenzyme A[c] =&gt; acetyl-CoA[c] + 2 ADP[c] + 2 phosphate[c]</t>
   </si>
   <si>
+    <t>YAL054C or YLR153C</t>
+  </si>
+  <si>
     <t>PDH</t>
   </si>
   <si>
@@ -391,6 +455,9 @@
     <t>coenzyme A[m] + NAD(+)[m] + pyruvate[c] =&gt; acetyl-CoA[m] + CO2[m] + NADH[m]</t>
   </si>
   <si>
+    <t>YER178W</t>
+  </si>
+  <si>
     <t>m</t>
   </si>
   <si>
@@ -403,6 +470,9 @@
     <t>ATP[c] + CO2[c] + pyruvate[c] =&gt; ADP[c] + oxaloacetate[m] + phosphate[c]</t>
   </si>
   <si>
+    <t>YGL062W or YBR218C</t>
+  </si>
+  <si>
     <t>CIT</t>
   </si>
   <si>
@@ -412,6 +482,9 @@
     <t>acetyl-CoA[m] + oxaloacetate[m] =&gt; citrate[m] + coenzyme A[m]</t>
   </si>
   <si>
+    <t>YNR001C or YPR001W</t>
+  </si>
+  <si>
     <t>ACO</t>
   </si>
   <si>
@@ -421,6 +494,9 @@
     <t>citrate[m] &lt;=&gt; isocitrate[m]</t>
   </si>
   <si>
+    <t>YLR304C</t>
+  </si>
+  <si>
     <t>IDP1</t>
   </si>
   <si>
@@ -430,6 +506,9 @@
     <t>isocitrate[m] + NADP(+)[m] =&gt; 2-oxoglutarate[m] + CO2[m] + NADPH[m]</t>
   </si>
   <si>
+    <t>YDL066W</t>
+  </si>
+  <si>
     <t>KGD1KGD2</t>
   </si>
   <si>
@@ -439,6 +518,9 @@
     <t>2-oxoglutarate[m] + coenzyme A[m] + NAD(+)[m] =&gt; CO2[m] + NADH[m] + succinyl-CoA[m]</t>
   </si>
   <si>
+    <t>YIL125W</t>
+  </si>
+  <si>
     <t>LSC1LSC2</t>
   </si>
   <si>
@@ -448,6 +530,9 @@
     <t>ADP[c] + phosphate[c] + succinyl-CoA[m] &lt;=&gt; ATP[c] + coenzyme A[m] + succinate[m]</t>
   </si>
   <si>
+    <t>YGR244C or YOR142W</t>
+  </si>
+  <si>
     <t>SDH</t>
   </si>
   <si>
@@ -457,6 +542,9 @@
     <t>FAD[m] + succinate[m] =&gt; FADH2[m] + fumarate[m]</t>
   </si>
   <si>
+    <t>YKL141W</t>
+  </si>
+  <si>
     <t>FRDS2</t>
   </si>
   <si>
@@ -466,6 +554,9 @@
     <t>FADH2[m] + fumarate[m] =&gt; FAD[m] + succinate[m]</t>
   </si>
   <si>
+    <t>YJR051W</t>
+  </si>
+  <si>
     <t>FUM1</t>
   </si>
   <si>
@@ -475,6 +566,9 @@
     <t>fumarate[m] &lt;=&gt; (S)-malate[m]</t>
   </si>
   <si>
+    <t>YPL262W</t>
+  </si>
+  <si>
     <t>MDH1</t>
   </si>
   <si>
@@ -484,6 +578,9 @@
     <t>(S)-malate[m] + NAD(+)[m] &lt;=&gt; NADH[m] + oxaloacetate[m]</t>
   </si>
   <si>
+    <t>YKL085W</t>
+  </si>
+  <si>
     <t>MAE1</t>
   </si>
   <si>
@@ -493,6 +590,9 @@
     <t>(S)-malate[m] + NADP(+)[m] =&gt; CO2[c] + NADPH[m] + pyruvate[c]</t>
   </si>
   <si>
+    <t>YKL029C</t>
+  </si>
+  <si>
     <t>PCK</t>
   </si>
   <si>
@@ -502,6 +602,9 @@
     <t>ATP[c] + oxaloacetate[m] =&gt; ADP[c] + CO2[c] + phosphoenolpyruvate[c]</t>
   </si>
   <si>
+    <t>YKR097W</t>
+  </si>
+  <si>
     <t>CAT2</t>
   </si>
   <si>
@@ -511,6 +614,9 @@
     <t>acetyl-CoA[c] + coenzyme A[m] =&gt; acetyl-CoA[m] + coenzyme A[c]</t>
   </si>
   <si>
+    <t>YML042W</t>
+  </si>
+  <si>
     <t>CO2TRANS</t>
   </si>
   <si>
@@ -586,9 +692,6 @@
     <t>chebi/CHEBI:15589</t>
   </si>
   <si>
-    <t>C4H6O5</t>
-  </si>
-  <si>
     <t>1/C4H6O5/c5-2(4(8)9)1-3(6)7/h2,5H,1H2,(H,6,7)(H,8,9)/p-2/t2-/m0/s1/fC4H4O5/q-2</t>
   </si>
   <si>
@@ -604,9 +707,6 @@
     <t>chebi/CHEBI:30916</t>
   </si>
   <si>
-    <t>C5H6O5</t>
-  </si>
-  <si>
     <t>1/C5H6O5/c6-3(5(9)10)1-2-4(7)8/h1-2H2,(H,7,8)(H,9,10)/p-1/fC5H5O5/h7H/q-1</t>
   </si>
   <si>
@@ -622,9 +722,6 @@
     <t>chebi/CHEBI:17835</t>
   </si>
   <si>
-    <t>C3H7O7P</t>
-  </si>
-  <si>
     <t>1/C3H7O7P/c4-1-2(3(5)6)10-11(7,8)9/h2,4H,1H2,(H,5,6)(H2,7,8,9)/t2-/m1/s1</t>
   </si>
   <si>
@@ -655,9 +752,6 @@
     <t>chebi/CHEBI:16001</t>
   </si>
   <si>
-    <t>C3H8O10P2</t>
-  </si>
-  <si>
     <t>1/C3H8O10P2/c4-2(1-12-14(6,7)8)3(5)13-15(9,10)11/h2,4H,1H2,(H2,6,7,8)(H2,9,10,11)/t2-/m1/s1</t>
   </si>
   <si>
@@ -673,9 +767,6 @@
     <t>chebi/CHEBI:16938</t>
   </si>
   <si>
-    <t>C6H11O9P</t>
-  </si>
-  <si>
     <t>1/C6H11O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-5,7-9H,1H2,(H2,11,12,13)/t2-,3-,4+,5-/m1/s1/f/h11-12H</t>
   </si>
   <si>
@@ -691,9 +782,6 @@
     <t>chebi/CHEBI:16863</t>
   </si>
   <si>
-    <t>C6H13O10P</t>
-  </si>
-  <si>
     <t>1/C6H13O10P/c7-2(1-16-17(13,14)15)3(8)4(9)5(10)6(11)12/h2-5,7-10H,1H2,(H,11,12)(H2,13,14,15)/p-1/t2-,3-,4+,5-/m1/s1</t>
   </si>
   <si>
@@ -709,9 +797,6 @@
     <t>chebi/CHEBI:15343</t>
   </si>
   <si>
-    <t>C2H4O</t>
-  </si>
-  <si>
     <t>1/C2H4O/c1-2-3/h2H,1H3</t>
   </si>
   <si>
@@ -727,9 +812,6 @@
     <t>chebi/CHEBI:30089</t>
   </si>
   <si>
-    <t>C2H4O2</t>
-  </si>
-  <si>
     <t>1/C2H4O2/c1-2(3)4/h1H3,(H,3,4)/p-1</t>
   </si>
   <si>
@@ -751,9 +833,6 @@
     <t>chebi/CHEBI:15351</t>
   </si>
   <si>
-    <t>C23H38N7O17P3S</t>
-  </si>
-  <si>
     <t>1/C23H38N7O17P3S/c1-12(31)51-7-6-25-14(32)4-5-26-21(35)18(34)23(2,3)9-44-50(41,42)47-49(39,40)43-8-13-17(46-48(36,37)38)16(33)22(45-13)30-11-29-15-19(24)27-10-28-20(15)30/h10-11,13,16-18,22,33-34H,4-9H2,1-3H3,(H,25,32)(H,26,35)(H,39,40)(H,41,42)(H2,24,27,28)(H2,36,37,38)/t13-,16-,17-,18+,22-/m1/s1/f/h25-26,36-37,39,41H,24H2</t>
   </si>
   <si>
@@ -775,9 +854,6 @@
     <t>chebi/CHEBI:16761</t>
   </si>
   <si>
-    <t>C10H15N5O10P2</t>
-  </si>
-  <si>
     <t>1/C10H15N5O10P2/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(24-10)1-23-27(21,22)25-26(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1/f/h18-19,21H,11H2</t>
   </si>
   <si>
@@ -793,9 +869,6 @@
     <t>chebi/CHEBI:17925</t>
   </si>
   <si>
-    <t>C6H12O6</t>
-  </si>
-  <si>
     <t>1/C6H12O6/c7-1-2-3(8)4(9)5(10)6(11)12-2/h2-11H,1H2/t2-,3-,4+,5-,6+/m1/s1</t>
   </si>
   <si>
@@ -817,9 +890,6 @@
     <t>chebi/CHEBI:17665</t>
   </si>
   <si>
-    <t>C6H13O9P</t>
-  </si>
-  <si>
     <t>1/C6H13O9P/c7-3-2(1-14-16(11,12)13)15-6(10)5(9)4(3)8/h2-10H,1H2,(H2,11,12,13)/t2-,3-,4+,5-,6+/m1/s1/f/h11-12H</t>
   </si>
   <si>
@@ -835,9 +905,6 @@
     <t>chebi/CHEBI:15422</t>
   </si>
   <si>
-    <t>C10H16N5O13P3</t>
-  </si>
-  <si>
     <t>1/C10H16N5O13P3/c11-8-5-9(13-2-12-8)15(3-14-5)10-7(17)6(16)4(26-10)1-25-30(21,22)28-31(23,24)27-29(18,19)20/h2-4,6-7,10,16-17H,1H2,(H,21,22)(H,23,24)(H2,11,12,13)(H2,18,19,20)/t4-,6-,7-,10-/m1/s1/f/h18-19,21,23H,11H2</t>
   </si>
   <si>
@@ -853,9 +920,6 @@
     <t>chebi/CHEBI:28013</t>
   </si>
   <si>
-    <t>C6H14O12P2</t>
-  </si>
-  <si>
     <t>1/C6H14O12P2/c7-4-3(1-16-19(10,11)12)18-6(9,5(4)8)2-17-20(13,14)15/h3-5,7-9H,1-2H2,(H2,10,11,12)(H2,13,14,15)/t3-,4-,5+,6-/m1/s1/f/h10-11,13-14H</t>
   </si>
   <si>
@@ -901,9 +965,6 @@
     <t>chebi/CHEBI:16947</t>
   </si>
   <si>
-    <t>C6H8O7</t>
-  </si>
-  <si>
     <t>1/C6H8O7/c7-3(8)1-6(13,5(11)12)2-4(9)10/h13H,1-2H2,(H,7,8)(H,9,10)(H,11,12)/p-3/fC6H5O7/q-3</t>
   </si>
   <si>
@@ -946,9 +1007,6 @@
     <t>chebi/CHEBI:15346</t>
   </si>
   <si>
-    <t>C21H36N7O16P3S</t>
-  </si>
-  <si>
     <t>1/C21H36N7O16P3S/c1-21(2,16(31)19(32)24-4-3-12(29)23-5-6-48)8-41-47(38,39)44-46(36,37)40-7-11-15(43-45(33,34)35)14(30)20(42-11)28-10-27-13-17(22)25-9-26-18(13)28/h9-11,14-16,20,30-31,48H,3-8H2,1-2H3,(H,23,29)(H,24,32)(H,36,37)(H,38,39)(H2,22,25,26)(H2,33,34,35)/t11-,14-,15-,16+,20-/m1/s1/f/h23-24,33-34,36,38H,22H2</t>
   </si>
   <si>
@@ -970,9 +1028,6 @@
     <t>chebi/CHEBI:16897</t>
   </si>
   <si>
-    <t>C4H9O7P</t>
-  </si>
-  <si>
     <t>1/C4H9O7P/c5-1-3(6)4(7)2-11-12(8,9)10/h1,3-4,6-7H,2H2,(H2,8,9,10)/p-2/t3-,4+/m0/s1</t>
   </si>
   <si>
@@ -988,9 +1043,6 @@
     <t>chebi/CHEBI:29052</t>
   </si>
   <si>
-    <t>C3H7O6P</t>
-  </si>
-  <si>
     <t>1/C3H7O6P/c4-1-3(5)2-9-10(6,7)8/h1,3,5H,2H2,(H2,6,7,8)/t3-/m0/s1/f/h6-7H</t>
   </si>
   <si>
@@ -1006,9 +1058,6 @@
     <t>chebi/CHEBI:17797</t>
   </si>
   <si>
-    <t>C5H11O8P</t>
-  </si>
-  <si>
     <t>1/C5H11O8P/c6-1-3(7)5(9)4(8)2-13-14(10,11)12/h1,3-5,7-9H,2H2,(H2,10,11,12)/t3-,4+,5-/m0/s1/f/h10-11H</t>
   </si>
   <si>
@@ -1054,9 +1103,6 @@
     <t>chebi/CHEBI:16236</t>
   </si>
   <si>
-    <t>C2H6O</t>
-  </si>
-  <si>
     <t>1/C2H6O/c1-2-3/h3H,2H2,1H3</t>
   </si>
   <si>
@@ -1078,9 +1124,6 @@
     <t>chebi/CHEBI:16238</t>
   </si>
   <si>
-    <t>C27H33N9O15P2</t>
-  </si>
-  <si>
     <t>1/C27H33N9O15P2/c1-10-3-12-13(4-11(10)2)35(24-18(32-12)25(42)34-27(43)33-24)5-14(37)19(39)15(38)6-48-52(44,45)51-53(46,47)49-7-16-20(40)21(41)26(50-16)36-9-31-17-22(28)29-8-30-23(17)36/h3-4,8-9,14-16,19-21,26,37-41H,5-7H2,1-2H3,(H,44,45)(H,46,47)(H2,28,29,30)(H,34,42,43)/t14-,15+,16+,19-,20+,21+,26+/m0/s1/f/h34,44,46H,28H2</t>
   </si>
   <si>
@@ -1096,9 +1139,6 @@
     <t>chebi/CHEBI:17877</t>
   </si>
   <si>
-    <t>C27H35N9O15P2</t>
-  </si>
-  <si>
     <t>1/C27H35N9O15P2/c1-10-3-12-13(4-11(10)2)35(24-18(32-12)25(42)34-27(43)33-24)5-14(37)19(39)15(38)6-48-52(44,45)51-53(46,47)49-7-16-20(40)21(41)26(50-16)36-9-31-17-22(28)29-8-30-23(17)36/h3-4,8-9,14-16,19-21,26,32,37-41H,5-7H2,1-2H3,(H,44,45)(H,46,47)(H2,28,29,30)(H2,33,34,42,43)/t14-,15+,16+,19-,20+,21+,26+/m0/s1/f/h33-34,44,46H,28H2</t>
   </si>
   <si>
@@ -1114,9 +1154,6 @@
     <t>chebi/CHEBI:29806</t>
   </si>
   <si>
-    <t>C4H4O4</t>
-  </si>
-  <si>
     <t>1/C4H4O4/c5-3(6)1-2-4(7)8/h1-2H,(H,5,6)(H,7,8)/p-2/b2-1+/fC4H2O4/q-2</t>
   </si>
   <si>
@@ -1132,9 +1169,6 @@
     <t>chebi/CHEBI:17754</t>
   </si>
   <si>
-    <t>C3H8O3</t>
-  </si>
-  <si>
     <t>1/C3H8O3/c4-1-3(6)2-5/h3-6H,1-2H2</t>
   </si>
   <si>
@@ -1201,9 +1235,6 @@
     <t>chebi/CHEBI:15846</t>
   </si>
   <si>
-    <t>C21H27N7O14P2</t>
-  </si>
-  <si>
     <t>1/C21H27N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1-4,7-8,10-11,13-16,20-21,29-32H,5-6H2,(H5-,22,23,24,25,33,34,35,36,37)/p+1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1/fC21H28N7O14P2/h34,36H,22-23H2/q+1</t>
   </si>
   <si>
@@ -1225,9 +1256,6 @@
     <t>chebi/CHEBI:16908</t>
   </si>
   <si>
-    <t>C21H29N7O14P2</t>
-  </si>
-  <si>
     <t>1/C21H29N7O14P2/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(32)14(30)11(41-21)6-39-44(36,37)42-43(34,35)38-5-10-13(29)15(31)20(40-10)27-3-1-2-9(4-27)18(23)33/h1,3-4,7-8,10-11,13-16,20-21,29-32H,2,5-6H2,(H2,23,33)(H,34,35)(H,36,37)(H2,22,24,25)/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1/f/h34,36H,22-23H2</t>
   </si>
   <si>
@@ -1249,9 +1277,6 @@
     <t>chebi/CHEBI:18009</t>
   </si>
   <si>
-    <t>C21H28N7O17P3</t>
-  </si>
-  <si>
     <t>1/C21H28N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1-4,7-8,10-11,13-16,20-21,29-31H,5-6H2,(H7-,22,23,24,25,32,33,34,35,36,37,38,39)/p+1/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1/fC21H29N7O17P3/h33-34,36,38H,22-23H2/q+1</t>
   </si>
   <si>
@@ -1273,9 +1298,6 @@
     <t>chebi/CHEBI:16474</t>
   </si>
   <si>
-    <t>C21H30N7O17P3</t>
-  </si>
-  <si>
     <t>1/C21H30N7O17P3/c22-17-12-19(25-7-24-17)28(8-26-12)21-16(44-46(33,34)35)14(30)11(43-21)6-41-48(38,39)45-47(36,37)40-5-10-13(29)15(31)20(42-10)27-3-1-2-9(4-27)18(23)32/h1,3-4,7-8,10-11,13-16,20-21,29-31H,2,5-6H2,(H2,23,32)(H,36,37)(H,38,39)(H2,22,24,25)(H2,33,34,35)/t10-,11-,13-,14-,15-,16-,20-,21-/m1/s1/f/h33-34,36,38H,22-23H2</t>
   </si>
   <si>
@@ -1318,9 +1340,6 @@
     <t>chebi/CHEBI:16452</t>
   </si>
   <si>
-    <t>C4H4O5</t>
-  </si>
-  <si>
     <t>1/C4H4O5/c5-2(4(8)9)1-3(6)7/h1H2,(H,6,7)(H,8,9)/p-2/fC4H2O5/q-2</t>
   </si>
   <si>
@@ -1336,9 +1355,6 @@
     <t>chebi/CHEBI:18367</t>
   </si>
   <si>
-    <t>H3O4P</t>
-  </si>
-  <si>
     <t>1/H3O4P/c1-5(2,3)4/h(H3,1,2,3,4)/p-3/fO4P/q-3</t>
   </si>
   <si>
@@ -1354,9 +1370,6 @@
     <t>chebi/CHEBI:18021</t>
   </si>
   <si>
-    <t>C3H5O6P</t>
-  </si>
-  <si>
     <t>1/C3H5O6P/c1-2(3(4)5)9-10(6,7)8/h1H2,(H,4,5)(H2,6,7,8)/p-1</t>
   </si>
   <si>
@@ -1372,9 +1385,6 @@
     <t>chebi/CHEBI:15361</t>
   </si>
   <si>
-    <t>C3H4O3</t>
-  </si>
-  <si>
     <t>1/C3H4O3/c1-2(4)3(5)6/h1H3,(H,5,6)/p-1/fC3H3O3/q-1</t>
   </si>
   <si>
@@ -1390,9 +1400,6 @@
     <t>chebi/CHEBI:15721</t>
   </si>
   <si>
-    <t>C7H15O10P</t>
-  </si>
-  <si>
     <t>1/C7H15O10P/c8-1-3(9)5(11)7(13)6(12)4(10)2-17-18(14,15)16/h4-8,10-13H,1-2H2,(H2,14,15,16)/t4-,5-,6-,7+/m1/s1</t>
   </si>
   <si>
@@ -1408,9 +1415,6 @@
     <t>chebi/CHEBI:30031</t>
   </si>
   <si>
-    <t>C4H6O4</t>
-  </si>
-  <si>
     <t>1/C4H6O4/c5-3(6)1-2-4(7)8/h1-2H2,(H,5,6)(H,7,8)/p-2/fC4H4O4/q-2</t>
   </si>
   <si>
@@ -1426,9 +1430,6 @@
     <t>chebi/CHEBI:15380</t>
   </si>
   <si>
-    <t>C25H40N7O19P3S</t>
-  </si>
-  <si>
     <t>1/C25H40N7O19P3S/c1-25(2,20(38)23(39)28-6-5-14(33)27-7-8-55-16(36)4-3-15(34)35)10-48-54(45,46)51-53(43,44)47-9-13-19(50-52(40,41)42)18(37)24(49-13)32-12-31-17-21(26)29-11-30-22(17)32/h11-13,18-20,24,37-38H,3-10H2,1-2H3,(H,27,33)(H,28,39)(H,34,35)(H,43,44)(H,45,46)(H2,26,29,30)(H2,40,41,42)/t13-,18-,19-,20+,24-/m1/s1/f/h27-28,34,40-41,43,45H,26H2</t>
   </si>
   <si>
@@ -1453,7 +1454,466 @@
     <t>SHORT NAME</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
+    <t>YAL054C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YAL054C;sgd/S000000050;uniprot/Q01574</t>
+  </si>
+  <si>
+    <t>ACS1</t>
+  </si>
+  <si>
+    <t>YBR117C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YBR117C;sgd/S000000321;uniprot/P33315</t>
+  </si>
+  <si>
+    <t>TKL2</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YBR196C;sgd/S000000400;uniprot/P12709</t>
+  </si>
+  <si>
+    <t>PGI1</t>
+  </si>
+  <si>
+    <t>YBR218C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YBR218C;sgd/S000000422;uniprot/P32327</t>
+  </si>
+  <si>
+    <t>PYC2</t>
+  </si>
+  <si>
+    <t>YCL040W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YCL040W;sgd/S000000545;uniprot/P17709</t>
+  </si>
+  <si>
+    <t>GLK1</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YCR012W;sgd/S000000605;uniprot/P00560</t>
+  </si>
+  <si>
+    <t>PGK1</t>
+  </si>
+  <si>
+    <t>YCR073W-A</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YCR073W-A;sgd/S000000718;uniprot/P37262</t>
+  </si>
+  <si>
+    <t>SOL2</t>
+  </si>
+  <si>
+    <t>YDL021W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDL021W;sgd/S000002179;uniprot/Q12008</t>
+  </si>
+  <si>
+    <t>GPM2</t>
+  </si>
+  <si>
+    <t>YDL022W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDL022W;sgd/S000002180;uniprot/Q00055</t>
+  </si>
+  <si>
+    <t>GPD1</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDL066W;sgd/S000002224;uniprot/P21954</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YDR050C;sgd/S000002457;uniprot/P00942</t>
+  </si>
+  <si>
+    <t>TPI1</t>
+  </si>
+  <si>
+    <t>YER062C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YER062C;sgd/S000000864;uniprot/P40106</t>
+  </si>
+  <si>
+    <t>HOR2</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YER178W;sgd/S000000980;uniprot/P16387</t>
+  </si>
+  <si>
+    <t>PDA1</t>
+  </si>
+  <si>
+    <t>YFR053C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YFR053C;sgd/S000001949;uniprot/P04806</t>
+  </si>
+  <si>
+    <t>HXK1</t>
+  </si>
+  <si>
+    <t>YGL062W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGL062W;sgd/S000003030;uniprot/P11154</t>
+  </si>
+  <si>
+    <t>PYC1</t>
+  </si>
+  <si>
+    <t>YGL253W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGL253W;sgd/S000003222;uniprot/P04807</t>
+  </si>
+  <si>
+    <t>HXK2</t>
+  </si>
+  <si>
+    <t>YGL256W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGL256W;sgd/S000003225;uniprot/P10127</t>
+  </si>
+  <si>
+    <t>ADH4</t>
+  </si>
+  <si>
+    <t>YGR087C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR087C;sgd/S000003319;uniprot/P26263</t>
+  </si>
+  <si>
+    <t>PDC6</t>
+  </si>
+  <si>
+    <t>YGR192C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR192C;sgd/S000003424;uniprot/P00359</t>
+  </si>
+  <si>
+    <t>TDH3</t>
+  </si>
+  <si>
+    <t>YGR240C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR240C;sgd/S000003472;uniprot/P16861</t>
+  </si>
+  <si>
+    <t>PFK1</t>
+  </si>
+  <si>
+    <t>YGR244C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR244C;sgd/S000003476;uniprot/P53312</t>
+  </si>
+  <si>
+    <t>LSC2</t>
+  </si>
+  <si>
+    <t>YGR248W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR248W;sgd/S000003480;uniprot/P53315</t>
+  </si>
+  <si>
+    <t>SOL4</t>
+  </si>
+  <si>
+    <t>YGR254W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR254W;sgd/S000003486;uniprot/P00924</t>
+  </si>
+  <si>
+    <t>ENO1</t>
+  </si>
+  <si>
+    <t>YGR256W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YGR256W;sgd/S000003488;uniprot/P53319</t>
+  </si>
+  <si>
+    <t>GND2</t>
+  </si>
+  <si>
+    <t>YHR163W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YHR163W;sgd/S000001206;uniprot/P38858</t>
+  </si>
+  <si>
+    <t>SOL3</t>
+  </si>
+  <si>
+    <t>YHR174W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YHR174W;sgd/S000001217;uniprot/P00925</t>
+  </si>
+  <si>
+    <t>ENO2</t>
+  </si>
+  <si>
+    <t>YHR183W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YHR183W;sgd/S000001226;uniprot/P38720</t>
+  </si>
+  <si>
+    <t>GND1</t>
+  </si>
+  <si>
+    <t>YIL053W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YIL053W;sgd/S000001315;uniprot/P41277</t>
+  </si>
+  <si>
+    <t>RHR2</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YIL125W;sgd/S000001387;uniprot/P20967</t>
+  </si>
+  <si>
+    <t>KGD1</t>
+  </si>
+  <si>
+    <t>YJL052W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJL052W;sgd/S000003588;uniprot/P00360</t>
+  </si>
+  <si>
+    <t>TDH1</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJL121C;sgd/S000003657;uniprot/P46969</t>
+  </si>
+  <si>
+    <t>RPE1</t>
+  </si>
+  <si>
+    <t>YJR009C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJR009C;sgd/S000003769;uniprot/P00358</t>
+  </si>
+  <si>
+    <t>TDH2</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YJR051W;sgd/S000003812;uniprot/P21375</t>
+  </si>
+  <si>
+    <t>OSM1</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL029C;sgd/S000001512;uniprot/P36013</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL060C;sgd/S000001543;uniprot/P14540</t>
+  </si>
+  <si>
+    <t>FBA1</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL085W;sgd/S000001568;uniprot/P17505</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL141W;sgd/S000001624;uniprot/P33421</t>
+  </si>
+  <si>
+    <t>SDH3</t>
+  </si>
+  <si>
+    <t>YKL152C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKL152C;sgd/S000001635;uniprot/P00950</t>
+  </si>
+  <si>
+    <t>GPM1</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YKR097W;sgd/S000001805;uniprot/P10963</t>
+  </si>
+  <si>
+    <t>PCK1</t>
+  </si>
+  <si>
+    <t>YLR044C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR044C;sgd/S000004034;uniprot/P06169</t>
+  </si>
+  <si>
+    <t>PDC1</t>
+  </si>
+  <si>
+    <t>YLR134W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR134W;sgd/S000004124;uniprot/P16467</t>
+  </si>
+  <si>
+    <t>PDC5</t>
+  </si>
+  <si>
+    <t>YLR153C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR153C;sgd/S000004143;uniprot/P52910</t>
+  </si>
+  <si>
+    <t>ACS2</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR304C;sgd/S000004295;uniprot/P19414</t>
+  </si>
+  <si>
+    <t>ACO1</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR354C;sgd/S000004346;uniprot/P15019</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YLR377C;sgd/S000004369;uniprot/P09201</t>
+  </si>
+  <si>
+    <t>FBP1</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YML042W;sgd/S000004506;uniprot/P32796</t>
+  </si>
+  <si>
+    <t>YMR205C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YMR205C;sgd/S000004818;uniprot/P16862</t>
+  </si>
+  <si>
+    <t>PFK2</t>
+  </si>
+  <si>
+    <t>YMR303C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YMR303C;sgd/S000004918;uniprot/P00331</t>
+  </si>
+  <si>
+    <t>ADH2</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YNL241C;sgd/S000005185;uniprot/P11412</t>
+  </si>
+  <si>
+    <t>ZWF1</t>
+  </si>
+  <si>
+    <t>YNR001C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YNR001C;sgd/S000005284;uniprot/P00890</t>
+  </si>
+  <si>
+    <t>CIT1</t>
+  </si>
+  <si>
+    <t>YNR034W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YNR034W;sgd/S000005317;uniprot/P50278</t>
+  </si>
+  <si>
+    <t>SOL1</t>
+  </si>
+  <si>
+    <t>YOL056W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOL056W;sgd/S000005417;uniprot/Q12326</t>
+  </si>
+  <si>
+    <t>GPM3</t>
+  </si>
+  <si>
+    <t>YOL059W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOL059W;sgd/S000005420;uniprot/P41911</t>
+  </si>
+  <si>
+    <t>GPD2</t>
+  </si>
+  <si>
+    <t>YOL086C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOL086C;sgd/S000005446;uniprot/P00330</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOR095C;sgd/S000005621;uniprot/Q12189</t>
+  </si>
+  <si>
+    <t>RKI1</t>
+  </si>
+  <si>
+    <t>YOR142W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOR142W;sgd/S000005668;uniprot/P53598</t>
+  </si>
+  <si>
+    <t>LSC1</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YOR347C;sgd/S000005874;uniprot/P52489</t>
+  </si>
+  <si>
+    <t>PYK2</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPL061W;sgd/S000005982;uniprot/P54115</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPL262W;sgd/S000006183;uniprot/P08417</t>
+  </si>
+  <si>
+    <t>YPR001W</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPR001W;sgd/S000006205;uniprot/P43635</t>
+  </si>
+  <si>
+    <t>CIT3</t>
+  </si>
+  <si>
+    <t>YPR074C</t>
+  </si>
+  <si>
+    <t>kegg.genes/sce:YPR074C;sgd/S000006278;uniprot/P23254</t>
+  </si>
+  <si>
+    <t>TKL1</t>
+  </si>
+  <si>
+    <t>TAXONOMY</t>
   </si>
   <si>
     <t>DEFAULT LOWER</t>
@@ -1474,9 +1934,6 @@
     <t>ORGANIZATION</t>
   </si>
   <si>
-    <t>TAXONOMY</t>
-  </si>
-  <si>
     <t>NOTES</t>
   </si>
   <si>
@@ -1486,18 +1943,6 @@
     <t>Central carbon metabolism for yeast</t>
   </si>
   <si>
-    <t>Rasmus</t>
-  </si>
-  <si>
-    <t>Agren</t>
-  </si>
-  <si>
-    <t>rasmus.agren@scilifelab.se</t>
-  </si>
-  <si>
-    <t>Chalmers University of Technology</t>
-  </si>
-  <si>
     <t>For use in the RAVEN workshop</t>
   </si>
   <si>
@@ -1510,577 +1955,7 @@
     <t>FAKE RXNS</t>
   </si>
   <si>
-    <t>ACS1</t>
-  </si>
-  <si>
-    <t>TKL2</t>
-  </si>
-  <si>
-    <t>PGI1</t>
-  </si>
-  <si>
-    <t>PYC2</t>
-  </si>
-  <si>
-    <t>GLK1</t>
-  </si>
-  <si>
-    <t>PGK1</t>
-  </si>
-  <si>
-    <t>SOL2</t>
-  </si>
-  <si>
-    <t>GPM2</t>
-  </si>
-  <si>
-    <t>GPD1</t>
-  </si>
-  <si>
-    <t>TPI1</t>
-  </si>
-  <si>
-    <t>HOR2</t>
-  </si>
-  <si>
-    <t>PDA1</t>
-  </si>
-  <si>
-    <t>HXK1</t>
-  </si>
-  <si>
-    <t>PYC1</t>
-  </si>
-  <si>
-    <t>HXK2</t>
-  </si>
-  <si>
-    <t>ADH4</t>
-  </si>
-  <si>
-    <t>PDC6</t>
-  </si>
-  <si>
-    <t>TDH3</t>
-  </si>
-  <si>
-    <t>PFK1</t>
-  </si>
-  <si>
-    <t>LSC2</t>
-  </si>
-  <si>
-    <t>SOL4</t>
-  </si>
-  <si>
-    <t>ENO1</t>
-  </si>
-  <si>
-    <t>GND2</t>
-  </si>
-  <si>
-    <t>SOL3</t>
-  </si>
-  <si>
-    <t>ENO2</t>
-  </si>
-  <si>
-    <t>GND1</t>
-  </si>
-  <si>
-    <t>RHR2</t>
-  </si>
-  <si>
-    <t>KGD1</t>
-  </si>
-  <si>
-    <t>TDH1</t>
-  </si>
-  <si>
-    <t>RPE1</t>
-  </si>
-  <si>
-    <t>TDH2</t>
-  </si>
-  <si>
-    <t>OSM1</t>
-  </si>
-  <si>
-    <t>FBA1</t>
-  </si>
-  <si>
-    <t>SDH3</t>
-  </si>
-  <si>
-    <t>GPM1</t>
-  </si>
-  <si>
-    <t>PCK1</t>
-  </si>
-  <si>
-    <t>PDC1</t>
-  </si>
-  <si>
-    <t>PDC5</t>
-  </si>
-  <si>
-    <t>ACS2</t>
-  </si>
-  <si>
-    <t>ACO1</t>
-  </si>
-  <si>
-    <t>FBP1</t>
-  </si>
-  <si>
-    <t>PFK2</t>
-  </si>
-  <si>
-    <t>ADH2</t>
-  </si>
-  <si>
-    <t>ZWF1</t>
-  </si>
-  <si>
-    <t>CIT1</t>
-  </si>
-  <si>
-    <t>SOL1</t>
-  </si>
-  <si>
-    <t>GPM3</t>
-  </si>
-  <si>
-    <t>GPD2</t>
-  </si>
-  <si>
-    <t>RKI1</t>
-  </si>
-  <si>
-    <t>LSC1</t>
-  </si>
-  <si>
-    <t>PYK2</t>
-  </si>
-  <si>
-    <t>CIT3</t>
-  </si>
-  <si>
-    <t>TKL1</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YAL054C;sgd/S000000050;uniprot/Q01574</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YBR117C;sgd/S000000321;uniprot/P33315</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YBR196C;sgd/S000000400;uniprot/P12709</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YBR218C;sgd/S000000422;uniprot/P32327</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YCL040W;sgd/S000000545;uniprot/P17709</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YCR012W;sgd/S000000605;uniprot/P00560</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YCR073W-A;sgd/S000000718;uniprot/P37262</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YDL021W;sgd/S000002179;uniprot/Q12008</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YDL022W;sgd/S000002180;uniprot/Q00055</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YDL066W;sgd/S000002224;uniprot/P21954</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YDR050C;sgd/S000002457;uniprot/P00942</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YER062C;sgd/S000000864;uniprot/P40106</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YER178W;sgd/S000000980;uniprot/P16387</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YFR053C;sgd/S000001949;uniprot/P04806</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YGL062W;sgd/S000003030;uniprot/P11154</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YGL253W;sgd/S000003222;uniprot/P04807</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YGL256W;sgd/S000003225;uniprot/P10127</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YGR087C;sgd/S000003319;uniprot/P26263</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YGR192C;sgd/S000003424;uniprot/P00359</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YGR240C;sgd/S000003472;uniprot/P16861</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YGR244C;sgd/S000003476;uniprot/P53312</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YGR248W;sgd/S000003480;uniprot/P53315</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YGR254W;sgd/S000003486;uniprot/P00924</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YGR256W;sgd/S000003488;uniprot/P53319</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YHR163W;sgd/S000001206;uniprot/P38858</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YHR174W;sgd/S000001217;uniprot/P00925</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YHR183W;sgd/S000001226;uniprot/P38720</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YIL053W;sgd/S000001315;uniprot/P41277</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YIL125W;sgd/S000001387;uniprot/P20967</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YJL052W;sgd/S000003588;uniprot/P00360</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YJL121C;sgd/S000003657;uniprot/P46969</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YJR009C;sgd/S000003769;uniprot/P00358</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YJR051W;sgd/S000003812;uniprot/P21375</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YKL029C;sgd/S000001512;uniprot/P36013</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YKL060C;sgd/S000001543;uniprot/P14540</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YKL085W;sgd/S000001568;uniprot/P17505</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YKL141W;sgd/S000001624;uniprot/P33421</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YKL152C;sgd/S000001635;uniprot/P00950</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YKR097W;sgd/S000001805;uniprot/P10963</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YLR044C;sgd/S000004034;uniprot/P06169</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YLR134W;sgd/S000004124;uniprot/P16467</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YLR153C;sgd/S000004143;uniprot/P52910</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YLR304C;sgd/S000004295;uniprot/P19414</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YLR354C;sgd/S000004346;uniprot/P15019</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YLR377C;sgd/S000004369;uniprot/P09201</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YML042W;sgd/S000004506;uniprot/P32796</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YMR205C;sgd/S000004818;uniprot/P16862</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YMR303C;sgd/S000004918;uniprot/P00331</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YNL241C;sgd/S000005185;uniprot/P11412</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YNR001C;sgd/S000005284;uniprot/P00890</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YNR034W;sgd/S000005317;uniprot/P50278</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YOL056W;sgd/S000005417;uniprot/Q12326</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YOL059W;sgd/S000005420;uniprot/P41911</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YOL086C;sgd/S000005446;uniprot/P00330</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YOR095C;sgd/S000005621;uniprot/Q12189</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YOR142W;sgd/S000005668;uniprot/P53598</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YOR347C;sgd/S000005874;uniprot/P52489</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YPL061W;sgd/S000005982;uniprot/P54115</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YPL262W;sgd/S000006183;uniprot/P08417</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YPR001W;sgd/S000006205;uniprot/P43635</t>
-  </si>
-  <si>
-    <t>kegg.genes/sce:YPR074C;sgd/S000006278;uniprot/P23254</t>
-  </si>
-  <si>
-    <t>YFR053C or YGL253W or YCL040W</t>
-  </si>
-  <si>
-    <t>YBR196C</t>
-  </si>
-  <si>
-    <t>YGR240C or YMR205C</t>
-  </si>
-  <si>
-    <t>YLR377C</t>
-  </si>
-  <si>
-    <t>YKL060C</t>
-  </si>
-  <si>
-    <t>YDR050C</t>
-  </si>
-  <si>
-    <t>YJL052W or YJR009C or YGR192C</t>
-  </si>
-  <si>
-    <t>YCR012W</t>
-  </si>
-  <si>
-    <t>YKL152C or YDL021W or YOL056W</t>
-  </si>
-  <si>
-    <t>YGR254W or YHR174W</t>
-  </si>
-  <si>
-    <t>YOR347C</t>
-  </si>
-  <si>
-    <t>YNL241C</t>
-  </si>
-  <si>
-    <t>YNR034W or YCR073W-A or YHR163W or YGR248W</t>
-  </si>
-  <si>
-    <t>YGR256W or YHR183W</t>
-  </si>
-  <si>
-    <t>YOR095C</t>
-  </si>
-  <si>
-    <t>YJL121C</t>
-  </si>
-  <si>
-    <t>YBR117C or YPR074C</t>
-  </si>
-  <si>
-    <t>YLR354C</t>
-  </si>
-  <si>
-    <t>YDL022W or YOL059W</t>
-  </si>
-  <si>
-    <t>YIL053W or YER062C</t>
-  </si>
-  <si>
-    <t>YGR087C or YLR134W or YLR044C</t>
-  </si>
-  <si>
-    <t>YGL256W or YMR303C or YOL086C</t>
-  </si>
-  <si>
-    <t>YPL061W</t>
-  </si>
-  <si>
-    <t>YAL054C or YLR153C</t>
-  </si>
-  <si>
-    <t>YER178W</t>
-  </si>
-  <si>
-    <t>YGL062W or YBR218C</t>
-  </si>
-  <si>
-    <t>YNR001C or YPR001W</t>
-  </si>
-  <si>
-    <t>YLR304C</t>
-  </si>
-  <si>
-    <t>YDL066W</t>
-  </si>
-  <si>
-    <t>YIL125W</t>
-  </si>
-  <si>
-    <t>YGR244C or YOR142W</t>
-  </si>
-  <si>
-    <t>YKL141W</t>
-  </si>
-  <si>
-    <t>YJR051W</t>
-  </si>
-  <si>
-    <t>YPL262W</t>
-  </si>
-  <si>
-    <t>YKL085W</t>
-  </si>
-  <si>
-    <t>YKL029C</t>
-  </si>
-  <si>
-    <t>YKR097W</t>
-  </si>
-  <si>
-    <t>YML042W</t>
-  </si>
-  <si>
-    <t>YAL054C</t>
-  </si>
-  <si>
-    <t>YBR117C</t>
-  </si>
-  <si>
-    <t>YBR218C</t>
-  </si>
-  <si>
-    <t>YCL040W</t>
-  </si>
-  <si>
-    <t>YCR073W-A</t>
-  </si>
-  <si>
-    <t>YDL021W</t>
-  </si>
-  <si>
-    <t>YDL022W</t>
-  </si>
-  <si>
-    <t>YER062C</t>
-  </si>
-  <si>
-    <t>YFR053C</t>
-  </si>
-  <si>
-    <t>YGL062W</t>
-  </si>
-  <si>
-    <t>YGL253W</t>
-  </si>
-  <si>
-    <t>YGL256W</t>
-  </si>
-  <si>
-    <t>YGR087C</t>
-  </si>
-  <si>
-    <t>YGR192C</t>
-  </si>
-  <si>
-    <t>YGR240C</t>
-  </si>
-  <si>
-    <t>YGR244C</t>
-  </si>
-  <si>
-    <t>YGR248W</t>
-  </si>
-  <si>
-    <t>YGR254W</t>
-  </si>
-  <si>
-    <t>YGR256W</t>
-  </si>
-  <si>
-    <t>YHR163W</t>
-  </si>
-  <si>
-    <t>YHR174W</t>
-  </si>
-  <si>
-    <t>YHR183W</t>
-  </si>
-  <si>
-    <t>YIL053W</t>
-  </si>
-  <si>
-    <t>YJL052W</t>
-  </si>
-  <si>
-    <t>YJR009C</t>
-  </si>
-  <si>
-    <t>YKL152C</t>
-  </si>
-  <si>
-    <t>YLR044C</t>
-  </si>
-  <si>
-    <t>YLR134W</t>
-  </si>
-  <si>
-    <t>YLR153C</t>
-  </si>
-  <si>
-    <t>YMR205C</t>
-  </si>
-  <si>
-    <t>YMR303C</t>
-  </si>
-  <si>
-    <t>YNR001C</t>
-  </si>
-  <si>
-    <t>YNR034W</t>
-  </si>
-  <si>
-    <t>YOL056W</t>
-  </si>
-  <si>
-    <t>YOL059W</t>
-  </si>
-  <si>
-    <t>YOL086C</t>
-  </si>
-  <si>
-    <t>YOR142W</t>
-  </si>
-  <si>
-    <t>YPR001W</t>
-  </si>
-  <si>
-    <t>YPR074C</t>
+    <t>taxonomy/559292</t>
   </si>
 </sst>
 </file>
@@ -2099,31 +1974,26 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2154,7 +2024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2162,18 +2032,17 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2186,7 +2055,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2231,9 +2100,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2261,14 +2130,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2296,6 +2182,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2451,16 +2354,16 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14:F52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="8" width="13.28515625" customWidth="1"/>
@@ -2469,7 +2372,7 @@
     <col min="11" max="12" width="30.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -2522,17 +2425,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -2544,6 +2444,12 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1000</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2558,6 +2464,12 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1000</v>
+      </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
@@ -2575,6 +2487,12 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1000</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2589,6 +2507,12 @@
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1000</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2603,6 +2527,12 @@
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1000</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2617,6 +2547,9 @@
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
@@ -2634,6 +2567,9 @@
       <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
@@ -2651,6 +2587,9 @@
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
@@ -2658,17 +2597,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-    </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C13" s="12"/>
+      <c r="B13" s="11" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -2681,752 +2616,1018 @@
         <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>606</v>
+        <v>44</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1000</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>607</v>
+        <v>49</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1000</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>608</v>
+        <v>53</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1000</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>609</v>
+        <v>57</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1000</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>610</v>
+        <v>61</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1000</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>611</v>
+        <v>65</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1000</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>612</v>
+        <v>69</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1000</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>613</v>
+        <v>73</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1000</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>614</v>
+        <v>77</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1000</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>615</v>
+        <v>81</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1000</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>616</v>
+        <v>85</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1000</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>617</v>
+        <v>89</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1000</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>618</v>
+        <v>93</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1000</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>619</v>
+        <v>97</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1000</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>620</v>
+        <v>101</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1000</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>621</v>
+        <v>105</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1000</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>622</v>
+        <v>109</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1000</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>623</v>
+        <v>113</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1000</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>622</v>
+        <v>109</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1000</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>624</v>
+        <v>119</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1000</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>625</v>
+        <v>123</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1000</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>626</v>
+        <v>127</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1000</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>627</v>
+        <v>131</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1000</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>628</v>
+        <v>135</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1000</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>629</v>
+        <v>139</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1000</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>630</v>
+        <v>143</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1000</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>631</v>
+        <v>148</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1000</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>632</v>
+        <v>152</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1000</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>633</v>
+        <v>156</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1000</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>634</v>
+        <v>160</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1000</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>635</v>
+        <v>164</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1000</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>636</v>
+        <v>168</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1000</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>637</v>
+        <v>172</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1000</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>638</v>
+        <v>176</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1000</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>640</v>
+        <v>184</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1000</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>641</v>
+        <v>188</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1000</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>642</v>
+        <v>192</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1000</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>643</v>
+        <v>196</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1000</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>161</v>
+        <v>199</v>
+      </c>
+      <c r="G53" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1000</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C54" s="12"/>
+        <v>144</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="C55" s="12"/>
+      <c r="B55" s="11" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>164</v>
+        <v>202</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1000</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>167</v>
+        <v>205</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1000</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>170</v>
+        <v>208</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1000</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>173</v>
+        <v>211</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1000</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>176</v>
+        <v>214</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1000</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3443,7 +3644,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="3" width="30.7109375" customWidth="1"/>
@@ -3465,16 +3666,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>9</v>
@@ -3483,283 +3684,259 @@
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>260</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>279</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>197</v>
+        <v>306</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>198</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>200</v>
+        <v>316</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>203</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>204</v>
+        <v>361</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>205</v>
+        <v>357</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>207</v>
+        <v>358</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>208</v>
+        <v>359</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>209</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>210</v>
+        <v>383</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>211</v>
+        <v>379</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>215</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>217</v>
+        <v>429</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>219</v>
+        <v>430</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>220</v>
+        <v>431</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>221</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="3" t="b">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" s="3" t="s">
         <v>231</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>232</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>243</v>
@@ -3775,86 +3952,71 @@
       <c r="E14" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F17" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>262</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>263</v>
@@ -3862,985 +4024,856 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="H20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="H21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D22" s="3" t="b">
-        <v>1</v>
+        <v>286</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" s="3" t="b">
-        <v>1</v>
+        <v>347</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D40" s="3" t="b">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D53" s="3" t="b">
-        <v>1</v>
+        <v>429</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -4857,7 +4890,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -4871,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>10</v>
@@ -4885,18 +4918,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4904,7 +4937,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -4916,12 +4949,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B62"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -4931,874 +4964,691 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="D2" t="s">
-        <v>492</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>645</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C27" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="D3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D27" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="C4" t="s">
-        <v>547</v>
-      </c>
-      <c r="D4" t="s">
-        <v>494</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>646</v>
-      </c>
-      <c r="C5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D5" t="s">
-        <v>495</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>647</v>
-      </c>
-      <c r="C6" t="s">
-        <v>549</v>
-      </c>
-      <c r="D6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D53" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C7" t="s">
-        <v>550</v>
-      </c>
-      <c r="D7" t="s">
-        <v>497</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>648</v>
-      </c>
-      <c r="C8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D8" t="s">
-        <v>498</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C9" t="s">
-        <v>552</v>
-      </c>
-      <c r="D9" t="s">
-        <v>499</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>650</v>
-      </c>
-      <c r="C10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D10" t="s">
-        <v>500</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>634</v>
-      </c>
-      <c r="C11" t="s">
-        <v>554</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>611</v>
-      </c>
-      <c r="C12" t="s">
-        <v>555</v>
-      </c>
-      <c r="D12" t="s">
-        <v>501</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>651</v>
-      </c>
-      <c r="C13" t="s">
-        <v>556</v>
-      </c>
-      <c r="D13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>630</v>
-      </c>
-      <c r="C14" t="s">
-        <v>557</v>
-      </c>
-      <c r="D14" t="s">
-        <v>503</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>652</v>
-      </c>
-      <c r="C15" t="s">
-        <v>558</v>
-      </c>
-      <c r="D15" t="s">
-        <v>504</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>653</v>
-      </c>
-      <c r="C16" t="s">
-        <v>559</v>
-      </c>
-      <c r="D16" t="s">
-        <v>505</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>654</v>
-      </c>
-      <c r="C17" t="s">
-        <v>560</v>
-      </c>
-      <c r="D17" t="s">
-        <v>506</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>655</v>
-      </c>
-      <c r="C18" t="s">
-        <v>561</v>
-      </c>
-      <c r="D18" t="s">
-        <v>507</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>656</v>
-      </c>
-      <c r="C19" t="s">
-        <v>562</v>
-      </c>
-      <c r="D19" t="s">
-        <v>508</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>657</v>
-      </c>
-      <c r="C20" t="s">
-        <v>563</v>
-      </c>
-      <c r="D20" t="s">
-        <v>509</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>658</v>
-      </c>
-      <c r="C21" t="s">
-        <v>564</v>
-      </c>
-      <c r="D21" t="s">
-        <v>510</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>659</v>
-      </c>
-      <c r="C22" t="s">
-        <v>565</v>
-      </c>
-      <c r="D22" t="s">
-        <v>511</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>660</v>
-      </c>
-      <c r="C23" t="s">
-        <v>566</v>
-      </c>
-      <c r="D23" t="s">
-        <v>512</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>661</v>
-      </c>
-      <c r="C24" t="s">
-        <v>567</v>
-      </c>
-      <c r="D24" t="s">
-        <v>513</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>662</v>
-      </c>
-      <c r="C25" t="s">
-        <v>568</v>
-      </c>
-      <c r="D25" t="s">
-        <v>514</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>663</v>
-      </c>
-      <c r="C26" t="s">
-        <v>569</v>
-      </c>
-      <c r="D26" t="s">
-        <v>515</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>664</v>
-      </c>
-      <c r="C27" t="s">
-        <v>570</v>
-      </c>
-      <c r="D27" t="s">
-        <v>516</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>665</v>
-      </c>
-      <c r="C28" t="s">
-        <v>571</v>
-      </c>
-      <c r="D28" t="s">
-        <v>517</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>666</v>
-      </c>
-      <c r="C29" t="s">
-        <v>572</v>
-      </c>
-      <c r="D29" t="s">
-        <v>518</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>635</v>
-      </c>
-      <c r="C30" t="s">
-        <v>573</v>
-      </c>
-      <c r="D30" t="s">
-        <v>519</v>
-      </c>
-      <c r="E30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>667</v>
-      </c>
-      <c r="C31" t="s">
-        <v>574</v>
-      </c>
-      <c r="D31" t="s">
-        <v>520</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="D55" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C32" t="s">
-        <v>575</v>
-      </c>
-      <c r="D32" t="s">
-        <v>521</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>668</v>
-      </c>
-      <c r="C33" t="s">
-        <v>576</v>
-      </c>
-      <c r="D33" t="s">
-        <v>522</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>638</v>
-      </c>
-      <c r="C34" t="s">
-        <v>577</v>
-      </c>
-      <c r="D34" t="s">
-        <v>523</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>641</v>
-      </c>
-      <c r="C35" t="s">
-        <v>578</v>
-      </c>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>610</v>
-      </c>
-      <c r="C36" t="s">
-        <v>579</v>
-      </c>
-      <c r="D36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>640</v>
-      </c>
-      <c r="C37" t="s">
-        <v>580</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C38" t="s">
-        <v>581</v>
-      </c>
-      <c r="D38" t="s">
-        <v>525</v>
-      </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>669</v>
-      </c>
-      <c r="C39" t="s">
-        <v>582</v>
-      </c>
-      <c r="D39" t="s">
-        <v>526</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>642</v>
-      </c>
-      <c r="C40" t="s">
-        <v>583</v>
-      </c>
-      <c r="D40" t="s">
-        <v>527</v>
-      </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>670</v>
-      </c>
-      <c r="C41" t="s">
-        <v>584</v>
-      </c>
-      <c r="D41" t="s">
-        <v>528</v>
-      </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>671</v>
-      </c>
-      <c r="C42" t="s">
-        <v>585</v>
-      </c>
-      <c r="D42" t="s">
-        <v>529</v>
-      </c>
-      <c r="E42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>672</v>
-      </c>
-      <c r="C43" t="s">
-        <v>586</v>
-      </c>
-      <c r="D43" t="s">
-        <v>530</v>
-      </c>
-      <c r="E43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>633</v>
-      </c>
-      <c r="C44" t="s">
-        <v>587</v>
-      </c>
-      <c r="D44" t="s">
-        <v>531</v>
-      </c>
-      <c r="E44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="D59" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C45" t="s">
-        <v>588</v>
-      </c>
-      <c r="D45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>609</v>
-      </c>
-      <c r="C46" t="s">
-        <v>589</v>
-      </c>
-      <c r="D46" t="s">
-        <v>532</v>
-      </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>643</v>
-      </c>
-      <c r="C47" t="s">
-        <v>590</v>
-      </c>
-      <c r="D47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>673</v>
-      </c>
-      <c r="C48" t="s">
-        <v>591</v>
-      </c>
-      <c r="D48" t="s">
-        <v>533</v>
-      </c>
-      <c r="E48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>674</v>
-      </c>
-      <c r="C49" t="s">
-        <v>592</v>
-      </c>
-      <c r="D49" t="s">
-        <v>534</v>
-      </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>617</v>
-      </c>
-      <c r="C50" t="s">
-        <v>593</v>
-      </c>
-      <c r="D50" t="s">
-        <v>535</v>
-      </c>
-      <c r="E50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>675</v>
-      </c>
-      <c r="C51" t="s">
-        <v>594</v>
-      </c>
-      <c r="D51" t="s">
-        <v>536</v>
-      </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>676</v>
-      </c>
-      <c r="C52" t="s">
-        <v>595</v>
-      </c>
-      <c r="D52" t="s">
-        <v>537</v>
-      </c>
-      <c r="E52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>677</v>
-      </c>
-      <c r="C53" t="s">
-        <v>596</v>
-      </c>
-      <c r="D53" t="s">
-        <v>538</v>
-      </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>678</v>
-      </c>
-      <c r="C54" t="s">
-        <v>597</v>
-      </c>
-      <c r="D54" t="s">
-        <v>539</v>
-      </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>679</v>
-      </c>
-      <c r="C55" t="s">
-        <v>598</v>
-      </c>
-      <c r="D55" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>620</v>
-      </c>
-      <c r="C56" t="s">
-        <v>599</v>
-      </c>
-      <c r="D56" t="s">
-        <v>540</v>
-      </c>
-      <c r="E56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>680</v>
-      </c>
-      <c r="C57" t="s">
-        <v>600</v>
-      </c>
-      <c r="D57" t="s">
-        <v>541</v>
-      </c>
-      <c r="E57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>616</v>
-      </c>
-      <c r="C58" t="s">
-        <v>601</v>
-      </c>
-      <c r="D58" t="s">
-        <v>542</v>
-      </c>
-      <c r="E58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="C61" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="C59" t="s">
-        <v>602</v>
-      </c>
-      <c r="D59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>639</v>
-      </c>
-      <c r="C60" t="s">
-        <v>603</v>
-      </c>
-      <c r="D60" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>681</v>
-      </c>
-      <c r="C61" t="s">
-        <v>604</v>
-      </c>
-      <c r="D61" t="s">
-        <v>543</v>
-      </c>
-      <c r="E61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>682</v>
-      </c>
-      <c r="C62" t="s">
-        <v>605</v>
-      </c>
-      <c r="D62" t="s">
-        <v>544</v>
-      </c>
-      <c r="E62" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5810,12 +5660,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -5823,72 +5673,57 @@
     <col min="4" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>481</v>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D2" s="8">
-        <v>-1000</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>488</v>
+      <c r="B2" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="D2" t="s">
+        <v>643</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
